--- a/歌曲資料庫.xlsx
+++ b/歌曲資料庫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Documents\GitHub\music_classification_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02261D2D-D698-42C7-85BC-04B4D10FE138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D20FD4-AA2E-4B16-BF16-B5A085675311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="183">
   <si>
     <t>歌名</t>
   </si>
@@ -1533,12 +1533,135 @@
   <si>
     <t>https://www.youtube.com/watch?v=dg1Rp4OHlg8&amp;list=PLEY_M7xVVeAvl_eVApGNgYCIa8lbo3y8F&amp;index=6</t>
   </si>
+  <si>
+    <t>被赦免</t>
+  </si>
+  <si>
+    <t>Bethel敬拜團</t>
+  </si>
+  <si>
+    <t>A1.
+我要唱 主唯有祢 拯救我生命
+耶穌 祢釋放我心
+將我罪和羞愧 都完全挪去
+為我 祢成為贖罪祭
+A2.
+我站在祢光中 的榮耀恩典
+在公義和憐憫中間
+萬人中 呼召我 到祢寶座前
+更多更詳盡歌詞 在 ※ Mojim.com　魔鏡歌詞網
+基督祢活在我裏面
+C.
+我已被赦免 在祢十字架前
+我已被接納 祢愛使我完全
+祢已洗淨 所有汙穢
+我已被赦免
+B.
+喔我被擁抱 在祢十架前
+慈愛和憐憫 主祢已傾倒一切
+祢已洗淨 所有汙穢
+我已被赦免</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>你使我歡欣</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5TVhGezpyK4&amp;list=PL4496D97F907CEBB3&amp;index=2</t>
+  </si>
+  <si>
+    <t>我要稱頌主到永遠
+我要每時刻相信
+他已挪去我的恐懼
+他使​​我穩固在磐石上
+我不至動搖
+更多更詳盡歌詞 在 ※ Mojim.com　魔鏡歌詞網
+我要對你說我的盾牌力量
+我福份我拯救者
+避難所堅固城 在患難中
+我隨時幫助(盾牌)
+除了你在天上我有誰
+除了你我也別無愛慕
+你使我歡欣</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好土</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LKj5h7e6Y9I&amp;list=PL4496D97F907CEBB3&amp;index=4</t>
+  </si>
+  <si>
+    <t>我渴望成為好土　讓你話語進入
+我渴望成為好土
+結出三十　六十　一百倍的果實
+我要與你　同釘十架
+雖選擇死去　反找到生命
+願我的生活方式　能見證你是永活的主
+我一生要使你得榮耀 Woo woo woo~
+若想活得更像你　唯一的路徑　
+就是選擇死去　讓老我死去
+若我的生命要結果子　
+我深知我就必需先 
+向著自己死去要死去 Woo
+現在放下得安息　如今老我已死去
+我心被造是為默想你
+我眼被造是為能仰望你
+我心被造要愛你尊崇你
+我口被造只為給你榮耀
+如今我　已興起
+生命不再妥協　內心更深渴慕你</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hvSJ66r2y3w&amp;list=PL4496D97F907CEBB3&amp;index=1</t>
+  </si>
+  <si>
+    <t>我們敬拜你</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ug_BskTjyhc&amp;list=PL4496D97F907CEBB3&amp;index=5</t>
+  </si>
+  <si>
+    <t>我們敬拜你，我們仰望你，
+你是我們的神，你是我們的盼望。
+你醫治我的心，你恢復這世代，
+你擁抱每個感到軟弱，快要凋零的心，
+我困難你能挪開，愛此刻正在運行，
+我感覺時刻已經來到，你要成就大事。
+大山小山你都能夠挪開，我的盼望你是我的力量，
+大山小山你都能夠挪開，你的慈愛永遠不會離開。
+你翻轉我的困境，一切因你而更新，
+我感覺時刻已經來到，你要成就美好事。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一個盼望</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=om0IXFMLNaI&amp;list=PL4496D97F907CEBB3&amp;index=7</t>
+  </si>
+  <si>
+    <t>有一個盼望燃燒在我心 日日夜夜賜我生命力量
+每當我見到一絲上帝的榮光 驅走內心迷茫
+在基督裡 罪得赦免 在基督裡 盼望永遠
+一生至高呼召和內心喜悅 唯遵從主旨意
+有一個盼望托住疲憊心 在沮喪中深深安撫我靈
+當環境推我落入最深的低谷 卻反而遇見你
+今日苦難 明日恐懼 在耳邊主說要剛強
+在主永恆懷抱裡得安息 你同在是我家
+這盼望經得起時間考驗 使我越過一切引誘試煉
+有朝一日將親自目睹你的面 何等榮美聖潔
+當悲傷患難都終結 當願望都因主實現
+難言的喜樂充滿在我心 我終於到家了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1762,6 +1885,13 @@
       <color rgb="FF030303"/>
       <name val="Roboto"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -2199,7 +2329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2221,34 +2351,37 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2610,8 +2743,8 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2643,12 +2776,12 @@
       <c r="F1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="153" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -3233,2289 +3366,2334 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="270" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="270" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="390" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="122.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="225" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="405" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="195" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="210" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="E47" s="11"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="E53" s="11"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="E58" s="11"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="E62" s="9"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="E63" s="11"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="E64" s="11"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="E65" s="11"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="E66" s="11"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="10"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="E67" s="11"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="E68" s="11"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="10"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="E69" s="11"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="E70" s="11"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="10"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="E71" s="11"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="E72" s="11"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="E73" s="11"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="E74" s="11"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="10"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="E75" s="11"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="10"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="E76" s="11"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="10"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="10"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="10"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="E79" s="11"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="10"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="E80" s="11"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="10"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="E81" s="11"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="E82" s="11"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="E83" s="11"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="10"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="E84" s="11"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="10"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="E85" s="11"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="10"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="E86" s="11"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="10"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="E87" s="11"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="E89" s="11"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="E89" s="9"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="E90" s="11"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="E90" s="9"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="10"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="E91" s="11"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="E92" s="11"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="E92" s="9"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="E93" s="11"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="10"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="E94" s="11"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="E94" s="9"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="10"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="E95" s="11"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="E95" s="9"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="10"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="E96" s="11"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="E96" s="9"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="10"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="E97" s="11"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="10"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="E98" s="11"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="E99" s="11"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="10"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="E100" s="11"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="10"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="E101" s="11"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="10"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="E102" s="11"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="E102" s="9"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="10"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="E103" s="11"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="10"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="E104" s="11"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="10"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="E105" s="11"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="10"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="E106" s="11"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="E106" s="9"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="10"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="E107" s="11"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="10"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="E108" s="11"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="E108" s="9"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="10"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="E109" s="11"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="10"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="E110" s="11"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="E110" s="9"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="10"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="E111" s="11"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="E111" s="9"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="10"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="E112" s="11"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="E112" s="9"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="10"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="E113" s="11"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="E113" s="9"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="10"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="E114" s="11"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="E114" s="9"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="10"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="E115" s="11"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="E115" s="9"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="10"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="E116" s="11"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="E116" s="9"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="E117" s="11"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="E117" s="9"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="10"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="E118" s="11"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="E118" s="9"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="E119" s="11"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="E119" s="9"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="10"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="E120" s="11"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="E120" s="9"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="10"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="E121" s="11"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="E121" s="9"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="E122" s="11"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="E122" s="9"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="10"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="E123" s="11"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="E123" s="9"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="10"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="E124" s="11"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="E124" s="9"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="10"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="E125" s="11"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="E125" s="9"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="10"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="E126" s="11"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="E126" s="9"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="10"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="E127" s="11"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="E127" s="9"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="10"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="E128" s="11"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="E128" s="9"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="10"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="E129" s="11"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="E129" s="9"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="10"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="E130" s="11"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="E130" s="9"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="10"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="E131" s="11"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="E131" s="9"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="10"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="E132" s="11"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="E132" s="9"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="10"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="E133" s="11"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="E133" s="9"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="10"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="E134" s="11"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="10"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="E135" s="11"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="E135" s="9"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="10"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="E136" s="11"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="E136" s="9"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="10"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="E137" s="11"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="E137" s="9"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="10"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="E138" s="11"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="E138" s="9"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="10"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="E139" s="11"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="E139" s="9"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="10"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="E140" s="11"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="E140" s="9"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="10"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="E141" s="11"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="E141" s="9"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="10"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="E142" s="11"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="E142" s="9"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="10"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="E143" s="11"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="E143" s="9"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="10"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="E144" s="11"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="10"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="E145" s="11"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="E145" s="9"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="10"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="E146" s="11"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="E146" s="9"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="10"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="E147" s="11"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="E147" s="9"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="10"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="E148" s="11"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="E148" s="9"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="10"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="E149" s="11"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="E149" s="9"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="10"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="E150" s="11"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="E150" s="9"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="10"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="E151" s="11"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="E151" s="9"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="10"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="E152" s="11"/>
+      <c r="A152" s="8"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="E152" s="9"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="10"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="E153" s="11"/>
+      <c r="A153" s="8"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="E153" s="9"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="10"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="E154" s="11"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="E154" s="9"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="10"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="E155" s="11"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="E155" s="9"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="10"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="E156" s="11"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="E156" s="9"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="10"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="E157" s="11"/>
+      <c r="A157" s="8"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="E157" s="9"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="10"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="E158" s="11"/>
+      <c r="A158" s="8"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="E158" s="9"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="10"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="E159" s="11"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="E159" s="9"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="10"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="E160" s="11"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="E160" s="9"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="10"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="E161" s="11"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="E161" s="9"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="10"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="E162" s="11"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="E162" s="9"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="10"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="E163" s="11"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="E163" s="9"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="10"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="E164" s="11"/>
+      <c r="A164" s="8"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="E164" s="9"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="10"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="E165" s="11"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="E165" s="9"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="10"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="E166" s="11"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="E166" s="9"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="10"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="E167" s="11"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="E167" s="9"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="10"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="E168" s="11"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="E168" s="9"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="10"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="E169" s="11"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="E169" s="9"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="10"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="E170" s="11"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="E170" s="9"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="10"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="E171" s="11"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="E171" s="9"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="10"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="E172" s="11"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="E172" s="9"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="10"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="E173" s="11"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="E173" s="9"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="10"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="E174" s="11"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="E174" s="9"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="10"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="E175" s="11"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="E175" s="9"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="10"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="E176" s="11"/>
+      <c r="A176" s="8"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="E176" s="9"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="10"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="E177" s="11"/>
+      <c r="A177" s="8"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="E177" s="9"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="10"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="E178" s="11"/>
+      <c r="A178" s="8"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="E178" s="9"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="10"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="E179" s="11"/>
+      <c r="A179" s="8"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="E179" s="9"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="10"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="E180" s="11"/>
+      <c r="A180" s="8"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="E180" s="9"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="10"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="E181" s="11"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="E181" s="9"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="10"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="E182" s="11"/>
+      <c r="A182" s="8"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="E182" s="9"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="10"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="E183" s="11"/>
+      <c r="A183" s="8"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="E183" s="9"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="10"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="E184" s="11"/>
+      <c r="A184" s="8"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="E184" s="9"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="10"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="E185" s="11"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="E185" s="9"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="10"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="E186" s="11"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="E186" s="9"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="10"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="E187" s="11"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="E187" s="9"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="10"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="E188" s="11"/>
+      <c r="A188" s="8"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="E188" s="9"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="10"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="E189" s="11"/>
+      <c r="A189" s="8"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="E189" s="9"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="10"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="E190" s="11"/>
+      <c r="A190" s="8"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="E190" s="9"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="10"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="E191" s="11"/>
+      <c r="A191" s="8"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="E191" s="9"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="10"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="E192" s="11"/>
+      <c r="A192" s="8"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="E192" s="9"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="10"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="E193" s="11"/>
+      <c r="A193" s="8"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
+      <c r="E193" s="9"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="10"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="E194" s="11"/>
+      <c r="A194" s="8"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="E194" s="9"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="10"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-      <c r="E195" s="11"/>
+      <c r="A195" s="8"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="E195" s="9"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="10"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="E196" s="11"/>
+      <c r="A196" s="8"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
+      <c r="E196" s="9"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="10"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="E197" s="11"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
+      <c r="E197" s="9"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="10"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="E198" s="11"/>
+      <c r="A198" s="8"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
+      <c r="E198" s="9"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="10"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="E199" s="11"/>
+      <c r="A199" s="8"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="E199" s="9"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="10"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="E200" s="11"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="E200" s="9"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="10"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="E201" s="11"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="9"/>
+      <c r="C201" s="9"/>
+      <c r="E201" s="9"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="10"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="E202" s="11"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="9"/>
+      <c r="C202" s="9"/>
+      <c r="E202" s="9"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="10"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="E203" s="11"/>
+      <c r="A203" s="8"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
+      <c r="E203" s="9"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="10"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
-      <c r="E204" s="11"/>
+      <c r="A204" s="8"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+      <c r="E204" s="9"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="10"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
-      <c r="E205" s="11"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
+      <c r="E205" s="9"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="10"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="E206" s="11"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="9"/>
+      <c r="C206" s="9"/>
+      <c r="E206" s="9"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="10"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="E207" s="11"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
+      <c r="E207" s="9"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="10"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="E208" s="11"/>
+      <c r="A208" s="8"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="E208" s="9"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="10"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="E209" s="11"/>
+      <c r="A209" s="8"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="E209" s="9"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="10"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-      <c r="E210" s="11"/>
+      <c r="A210" s="8"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
+      <c r="E210" s="9"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="10"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
-      <c r="E211" s="11"/>
+      <c r="A211" s="8"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="E211" s="9"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="10"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
-      <c r="E212" s="11"/>
+      <c r="A212" s="8"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="9"/>
+      <c r="E212" s="9"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="10"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="E213" s="11"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
+      <c r="E213" s="9"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="10"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
-      <c r="E214" s="11"/>
+      <c r="A214" s="8"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
+      <c r="E214" s="9"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="10"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-      <c r="E215" s="11"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
+      <c r="E215" s="9"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="10"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
-      <c r="E216" s="11"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
+      <c r="E216" s="9"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="10"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="E217" s="11"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
+      <c r="E217" s="9"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="10"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
-      <c r="E218" s="11"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="9"/>
+      <c r="E218" s="9"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="10"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="E219" s="11"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
+      <c r="E219" s="9"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="10"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
-      <c r="E220" s="11"/>
+      <c r="A220" s="8"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
+      <c r="E220" s="9"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="10"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="11"/>
-      <c r="E221" s="11"/>
+      <c r="A221" s="8"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
+      <c r="E221" s="9"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="10"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
-      <c r="E222" s="11"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9"/>
+      <c r="E222" s="9"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="10"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
-      <c r="E223" s="11"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="9"/>
+      <c r="E223" s="9"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="10"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
-      <c r="E224" s="11"/>
+      <c r="A224" s="8"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
+      <c r="E224" s="9"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="10"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="11"/>
-      <c r="E225" s="11"/>
+      <c r="A225" s="8"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="9"/>
+      <c r="E225" s="9"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="10"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
-      <c r="E226" s="11"/>
+      <c r="A226" s="8"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="9"/>
+      <c r="E226" s="9"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="10"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="11"/>
-      <c r="E227" s="11"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
+      <c r="E227" s="9"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="10"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
-      <c r="E228" s="11"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="9"/>
+      <c r="E228" s="9"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="10"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="E229" s="11"/>
+      <c r="A229" s="8"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="E229" s="9"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="10"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="11"/>
-      <c r="E230" s="11"/>
+      <c r="A230" s="8"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
+      <c r="E230" s="9"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="10"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="E231" s="11"/>
+      <c r="A231" s="8"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="9"/>
+      <c r="E231" s="9"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="10"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="E232" s="11"/>
+      <c r="A232" s="8"/>
+      <c r="B232" s="9"/>
+      <c r="C232" s="9"/>
+      <c r="E232" s="9"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="10"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
-      <c r="E233" s="11"/>
+      <c r="A233" s="8"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
+      <c r="E233" s="9"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="10"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
-      <c r="E234" s="11"/>
+      <c r="A234" s="8"/>
+      <c r="B234" s="9"/>
+      <c r="C234" s="9"/>
+      <c r="E234" s="9"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="10"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="11"/>
-      <c r="E235" s="11"/>
+      <c r="A235" s="8"/>
+      <c r="B235" s="9"/>
+      <c r="C235" s="9"/>
+      <c r="E235" s="9"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="10"/>
-      <c r="B236" s="11"/>
-      <c r="C236" s="11"/>
-      <c r="E236" s="11"/>
+      <c r="A236" s="8"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="9"/>
+      <c r="E236" s="9"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="10"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="11"/>
-      <c r="E237" s="11"/>
+      <c r="A237" s="8"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
+      <c r="E237" s="9"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="10"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="E238" s="11"/>
+      <c r="A238" s="8"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
+      <c r="E238" s="9"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="10"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="E239" s="11"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="9"/>
+      <c r="C239" s="9"/>
+      <c r="E239" s="9"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="10"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="E240" s="11"/>
+      <c r="A240" s="8"/>
+      <c r="B240" s="9"/>
+      <c r="C240" s="9"/>
+      <c r="E240" s="9"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="10"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="E241" s="11"/>
+      <c r="A241" s="8"/>
+      <c r="B241" s="9"/>
+      <c r="C241" s="9"/>
+      <c r="E241" s="9"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="10"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="11"/>
-      <c r="E242" s="11"/>
+      <c r="A242" s="8"/>
+      <c r="B242" s="9"/>
+      <c r="C242" s="9"/>
+      <c r="E242" s="9"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="10"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="E243" s="11"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="9"/>
+      <c r="C243" s="9"/>
+      <c r="E243" s="9"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="10"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="E244" s="11"/>
+      <c r="A244" s="8"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="9"/>
+      <c r="E244" s="9"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="10"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
-      <c r="E245" s="11"/>
+      <c r="A245" s="8"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="9"/>
+      <c r="E245" s="9"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="10"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="11"/>
-      <c r="E246" s="11"/>
+      <c r="A246" s="8"/>
+      <c r="B246" s="9"/>
+      <c r="C246" s="9"/>
+      <c r="E246" s="9"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="10"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="11"/>
-      <c r="E247" s="11"/>
+      <c r="A247" s="8"/>
+      <c r="B247" s="9"/>
+      <c r="C247" s="9"/>
+      <c r="E247" s="9"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="10"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="E248" s="11"/>
+      <c r="A248" s="8"/>
+      <c r="B248" s="9"/>
+      <c r="C248" s="9"/>
+      <c r="E248" s="9"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="10"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="E249" s="11"/>
+      <c r="A249" s="8"/>
+      <c r="B249" s="9"/>
+      <c r="C249" s="9"/>
+      <c r="E249" s="9"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="10"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="E250" s="11"/>
+      <c r="A250" s="8"/>
+      <c r="B250" s="9"/>
+      <c r="C250" s="9"/>
+      <c r="E250" s="9"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="10"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
-      <c r="E251" s="11"/>
+      <c r="A251" s="8"/>
+      <c r="B251" s="9"/>
+      <c r="C251" s="9"/>
+      <c r="E251" s="9"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="10"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="11"/>
-      <c r="E252" s="11"/>
+      <c r="A252" s="8"/>
+      <c r="B252" s="9"/>
+      <c r="C252" s="9"/>
+      <c r="E252" s="9"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="10"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="11"/>
-      <c r="E253" s="11"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="9"/>
+      <c r="C253" s="9"/>
+      <c r="E253" s="9"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="10"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
-      <c r="E254" s="11"/>
+      <c r="A254" s="8"/>
+      <c r="B254" s="9"/>
+      <c r="C254" s="9"/>
+      <c r="E254" s="9"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="10"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
-      <c r="E255" s="11"/>
+      <c r="A255" s="8"/>
+      <c r="B255" s="9"/>
+      <c r="C255" s="9"/>
+      <c r="E255" s="9"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="10"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="11"/>
-      <c r="E256" s="11"/>
+      <c r="A256" s="8"/>
+      <c r="B256" s="9"/>
+      <c r="C256" s="9"/>
+      <c r="E256" s="9"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="10"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="11"/>
-      <c r="E257" s="11"/>
+      <c r="A257" s="8"/>
+      <c r="B257" s="9"/>
+      <c r="C257" s="9"/>
+      <c r="E257" s="9"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="10"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
-      <c r="E258" s="11"/>
+      <c r="A258" s="8"/>
+      <c r="B258" s="9"/>
+      <c r="C258" s="9"/>
+      <c r="E258" s="9"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="10"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="E259" s="11"/>
+      <c r="A259" s="8"/>
+      <c r="B259" s="9"/>
+      <c r="C259" s="9"/>
+      <c r="E259" s="9"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="10"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="E260" s="11"/>
+      <c r="A260" s="8"/>
+      <c r="B260" s="9"/>
+      <c r="C260" s="9"/>
+      <c r="E260" s="9"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="10"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="11"/>
-      <c r="E261" s="11"/>
+      <c r="A261" s="8"/>
+      <c r="B261" s="9"/>
+      <c r="C261" s="9"/>
+      <c r="E261" s="9"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="10"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="11"/>
-      <c r="E262" s="11"/>
+      <c r="A262" s="8"/>
+      <c r="B262" s="9"/>
+      <c r="C262" s="9"/>
+      <c r="E262" s="9"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="10"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="11"/>
-      <c r="E263" s="11"/>
+      <c r="A263" s="8"/>
+      <c r="B263" s="9"/>
+      <c r="C263" s="9"/>
+      <c r="E263" s="9"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="10"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="E264" s="11"/>
+      <c r="A264" s="8"/>
+      <c r="B264" s="9"/>
+      <c r="C264" s="9"/>
+      <c r="E264" s="9"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="10"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
-      <c r="E265" s="11"/>
+      <c r="A265" s="8"/>
+      <c r="B265" s="9"/>
+      <c r="C265" s="9"/>
+      <c r="E265" s="9"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="10"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
-      <c r="E266" s="11"/>
+      <c r="A266" s="8"/>
+      <c r="B266" s="9"/>
+      <c r="C266" s="9"/>
+      <c r="E266" s="9"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="10"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="11"/>
-      <c r="E267" s="11"/>
+      <c r="A267" s="8"/>
+      <c r="B267" s="9"/>
+      <c r="C267" s="9"/>
+      <c r="E267" s="9"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="10"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="11"/>
-      <c r="E268" s="11"/>
+      <c r="A268" s="8"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="9"/>
+      <c r="E268" s="9"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="10"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
-      <c r="E269" s="11"/>
+      <c r="A269" s="8"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="9"/>
+      <c r="E269" s="9"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="10"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
-      <c r="E270" s="11"/>
+      <c r="A270" s="8"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="9"/>
+      <c r="E270" s="9"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="10"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="11"/>
-      <c r="E271" s="11"/>
+      <c r="A271" s="8"/>
+      <c r="B271" s="9"/>
+      <c r="C271" s="9"/>
+      <c r="E271" s="9"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="10"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="11"/>
-      <c r="E272" s="11"/>
+      <c r="A272" s="8"/>
+      <c r="B272" s="9"/>
+      <c r="C272" s="9"/>
+      <c r="E272" s="9"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="10"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="11"/>
-      <c r="E273" s="11"/>
+      <c r="A273" s="8"/>
+      <c r="B273" s="9"/>
+      <c r="C273" s="9"/>
+      <c r="E273" s="9"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="10"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
-      <c r="E274" s="11"/>
+      <c r="A274" s="8"/>
+      <c r="B274" s="9"/>
+      <c r="C274" s="9"/>
+      <c r="E274" s="9"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="10"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="E275" s="11"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="9"/>
+      <c r="E275" s="9"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="10"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
-      <c r="E276" s="11"/>
+      <c r="A276" s="8"/>
+      <c r="B276" s="9"/>
+      <c r="C276" s="9"/>
+      <c r="E276" s="9"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="10"/>
-      <c r="B277" s="11"/>
-      <c r="C277" s="11"/>
-      <c r="E277" s="11"/>
+      <c r="A277" s="8"/>
+      <c r="B277" s="9"/>
+      <c r="C277" s="9"/>
+      <c r="E277" s="9"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="10"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="11"/>
-      <c r="E278" s="11"/>
+      <c r="A278" s="8"/>
+      <c r="B278" s="9"/>
+      <c r="C278" s="9"/>
+      <c r="E278" s="9"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="10"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="11"/>
-      <c r="E279" s="11"/>
+      <c r="A279" s="8"/>
+      <c r="B279" s="9"/>
+      <c r="C279" s="9"/>
+      <c r="E279" s="9"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="10"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
-      <c r="E280" s="11"/>
+      <c r="A280" s="8"/>
+      <c r="B280" s="9"/>
+      <c r="C280" s="9"/>
+      <c r="E280" s="9"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="10"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
-      <c r="E281" s="11"/>
+      <c r="A281" s="8"/>
+      <c r="B281" s="9"/>
+      <c r="C281" s="9"/>
+      <c r="E281" s="9"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="10"/>
-      <c r="B282" s="11"/>
-      <c r="C282" s="11"/>
-      <c r="E282" s="11"/>
+      <c r="A282" s="8"/>
+      <c r="B282" s="9"/>
+      <c r="C282" s="9"/>
+      <c r="E282" s="9"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="10"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="11"/>
-      <c r="E283" s="11"/>
+      <c r="A283" s="8"/>
+      <c r="B283" s="9"/>
+      <c r="C283" s="9"/>
+      <c r="E283" s="9"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="10"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
-      <c r="E284" s="11"/>
+      <c r="A284" s="8"/>
+      <c r="B284" s="9"/>
+      <c r="C284" s="9"/>
+      <c r="E284" s="9"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="10"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="11"/>
-      <c r="E285" s="11"/>
+      <c r="A285" s="8"/>
+      <c r="B285" s="9"/>
+      <c r="C285" s="9"/>
+      <c r="E285" s="9"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="10"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
-      <c r="E286" s="11"/>
+      <c r="A286" s="8"/>
+      <c r="B286" s="9"/>
+      <c r="C286" s="9"/>
+      <c r="E286" s="9"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="10"/>
-      <c r="B287" s="11"/>
-      <c r="C287" s="11"/>
-      <c r="E287" s="11"/>
+      <c r="A287" s="8"/>
+      <c r="B287" s="9"/>
+      <c r="C287" s="9"/>
+      <c r="E287" s="9"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="10"/>
-      <c r="B288" s="11"/>
-      <c r="C288" s="11"/>
-      <c r="E288" s="11"/>
+      <c r="A288" s="8"/>
+      <c r="B288" s="9"/>
+      <c r="C288" s="9"/>
+      <c r="E288" s="9"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="10"/>
-      <c r="B289" s="11"/>
-      <c r="C289" s="11"/>
-      <c r="E289" s="11"/>
+      <c r="A289" s="8"/>
+      <c r="B289" s="9"/>
+      <c r="C289" s="9"/>
+      <c r="E289" s="9"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="10"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="11"/>
-      <c r="E290" s="11"/>
+      <c r="A290" s="8"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="9"/>
+      <c r="E290" s="9"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="10"/>
-      <c r="B291" s="11"/>
-      <c r="C291" s="11"/>
-      <c r="E291" s="11"/>
+      <c r="A291" s="8"/>
+      <c r="B291" s="9"/>
+      <c r="C291" s="9"/>
+      <c r="E291" s="9"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="10"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="11"/>
-      <c r="E292" s="11"/>
+      <c r="A292" s="8"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="9"/>
+      <c r="E292" s="9"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="10"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="11"/>
-      <c r="E293" s="11"/>
+      <c r="A293" s="8"/>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9"/>
+      <c r="E293" s="9"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="10"/>
-      <c r="B294" s="11"/>
-      <c r="C294" s="11"/>
-      <c r="E294" s="11"/>
+      <c r="A294" s="8"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="9"/>
+      <c r="E294" s="9"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="10"/>
-      <c r="B295" s="11"/>
-      <c r="C295" s="11"/>
-      <c r="E295" s="11"/>
+      <c r="A295" s="8"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="9"/>
+      <c r="E295" s="9"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="10"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="11"/>
-      <c r="E296" s="11"/>
+      <c r="A296" s="8"/>
+      <c r="B296" s="9"/>
+      <c r="C296" s="9"/>
+      <c r="E296" s="9"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="10"/>
-      <c r="B297" s="11"/>
-      <c r="C297" s="11"/>
-      <c r="E297" s="11"/>
+      <c r="A297" s="8"/>
+      <c r="B297" s="9"/>
+      <c r="C297" s="9"/>
+      <c r="E297" s="9"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="10"/>
-      <c r="B298" s="11"/>
-      <c r="C298" s="11"/>
-      <c r="E298" s="11"/>
+      <c r="A298" s="8"/>
+      <c r="B298" s="9"/>
+      <c r="C298" s="9"/>
+      <c r="E298" s="9"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="10"/>
-      <c r="B299" s="11"/>
-      <c r="C299" s="11"/>
-      <c r="E299" s="11"/>
+      <c r="A299" s="8"/>
+      <c r="B299" s="9"/>
+      <c r="C299" s="9"/>
+      <c r="E299" s="9"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="10"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="11"/>
-      <c r="E300" s="11"/>
+      <c r="A300" s="8"/>
+      <c r="B300" s="9"/>
+      <c r="C300" s="9"/>
+      <c r="E300" s="9"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="10"/>
-      <c r="B301" s="11"/>
-      <c r="C301" s="11"/>
-      <c r="E301" s="11"/>
+      <c r="A301" s="8"/>
+      <c r="B301" s="9"/>
+      <c r="C301" s="9"/>
+      <c r="E301" s="9"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="10"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="E302" s="11"/>
+      <c r="A302" s="8"/>
+      <c r="B302" s="9"/>
+      <c r="C302" s="9"/>
+      <c r="E302" s="9"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="10"/>
-      <c r="B303" s="11"/>
-      <c r="C303" s="11"/>
-      <c r="E303" s="11"/>
+      <c r="A303" s="8"/>
+      <c r="B303" s="9"/>
+      <c r="C303" s="9"/>
+      <c r="E303" s="9"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="10"/>
-      <c r="B304" s="11"/>
-      <c r="C304" s="11"/>
-      <c r="E304" s="11"/>
+      <c r="A304" s="8"/>
+      <c r="B304" s="9"/>
+      <c r="C304" s="9"/>
+      <c r="E304" s="9"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="10"/>
-      <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
-      <c r="E305" s="11"/>
+      <c r="A305" s="8"/>
+      <c r="B305" s="9"/>
+      <c r="C305" s="9"/>
+      <c r="E305" s="9"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="10"/>
-      <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
-      <c r="E306" s="11"/>
+      <c r="A306" s="8"/>
+      <c r="B306" s="9"/>
+      <c r="C306" s="9"/>
+      <c r="E306" s="9"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="10"/>
-      <c r="B307" s="11"/>
-      <c r="C307" s="11"/>
-      <c r="E307" s="11"/>
+      <c r="A307" s="8"/>
+      <c r="B307" s="9"/>
+      <c r="C307" s="9"/>
+      <c r="E307" s="9"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="10"/>
-      <c r="B308" s="11"/>
-      <c r="C308" s="11"/>
-      <c r="E308" s="11"/>
+      <c r="A308" s="8"/>
+      <c r="B308" s="9"/>
+      <c r="C308" s="9"/>
+      <c r="E308" s="9"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="10"/>
-      <c r="B309" s="11"/>
-      <c r="C309" s="11"/>
-      <c r="E309" s="11"/>
+      <c r="A309" s="8"/>
+      <c r="B309" s="9"/>
+      <c r="C309" s="9"/>
+      <c r="E309" s="9"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="10"/>
-      <c r="B310" s="11"/>
-      <c r="C310" s="11"/>
-      <c r="E310" s="11"/>
+      <c r="A310" s="8"/>
+      <c r="B310" s="9"/>
+      <c r="C310" s="9"/>
+      <c r="E310" s="9"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="10"/>
-      <c r="B311" s="11"/>
-      <c r="C311" s="11"/>
-      <c r="E311" s="11"/>
+      <c r="A311" s="8"/>
+      <c r="B311" s="9"/>
+      <c r="C311" s="9"/>
+      <c r="E311" s="9"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="10"/>
-      <c r="B312" s="11"/>
-      <c r="C312" s="11"/>
-      <c r="E312" s="11"/>
+      <c r="A312" s="8"/>
+      <c r="B312" s="9"/>
+      <c r="C312" s="9"/>
+      <c r="E312" s="9"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="10"/>
-      <c r="B313" s="11"/>
-      <c r="C313" s="11"/>
-      <c r="E313" s="11"/>
+      <c r="A313" s="8"/>
+      <c r="B313" s="9"/>
+      <c r="C313" s="9"/>
+      <c r="E313" s="9"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="10"/>
-      <c r="B314" s="11"/>
-      <c r="C314" s="11"/>
-      <c r="E314" s="11"/>
+      <c r="A314" s="8"/>
+      <c r="B314" s="9"/>
+      <c r="C314" s="9"/>
+      <c r="E314" s="9"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" s="10"/>
-      <c r="B315" s="11"/>
-      <c r="C315" s="11"/>
-      <c r="E315" s="11"/>
+      <c r="A315" s="8"/>
+      <c r="B315" s="9"/>
+      <c r="C315" s="9"/>
+      <c r="E315" s="9"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="10"/>
-      <c r="B316" s="11"/>
-      <c r="C316" s="11"/>
-      <c r="E316" s="11"/>
+      <c r="A316" s="8"/>
+      <c r="B316" s="9"/>
+      <c r="C316" s="9"/>
+      <c r="E316" s="9"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="10"/>
-      <c r="B317" s="11"/>
-      <c r="C317" s="11"/>
-      <c r="E317" s="11"/>
+      <c r="A317" s="8"/>
+      <c r="B317" s="9"/>
+      <c r="C317" s="9"/>
+      <c r="E317" s="9"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="10"/>
-      <c r="B318" s="11"/>
-      <c r="C318" s="11"/>
-      <c r="E318" s="11"/>
+      <c r="A318" s="8"/>
+      <c r="B318" s="9"/>
+      <c r="C318" s="9"/>
+      <c r="E318" s="9"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="10"/>
-      <c r="B319" s="11"/>
-      <c r="C319" s="11"/>
-      <c r="E319" s="11"/>
+      <c r="A319" s="8"/>
+      <c r="B319" s="9"/>
+      <c r="C319" s="9"/>
+      <c r="E319" s="9"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="10"/>
-      <c r="B320" s="11"/>
-      <c r="C320" s="11"/>
-      <c r="E320" s="11"/>
+      <c r="A320" s="8"/>
+      <c r="B320" s="9"/>
+      <c r="C320" s="9"/>
+      <c r="E320" s="9"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="10"/>
-      <c r="B321" s="11"/>
-      <c r="C321" s="11"/>
-      <c r="E321" s="11"/>
+      <c r="A321" s="8"/>
+      <c r="B321" s="9"/>
+      <c r="C321" s="9"/>
+      <c r="E321" s="9"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="10"/>
-      <c r="B322" s="11"/>
-      <c r="C322" s="11"/>
-      <c r="E322" s="11"/>
+      <c r="A322" s="8"/>
+      <c r="B322" s="9"/>
+      <c r="C322" s="9"/>
+      <c r="E322" s="9"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="10"/>
-      <c r="B323" s="11"/>
-      <c r="C323" s="11"/>
-      <c r="E323" s="11"/>
+      <c r="A323" s="8"/>
+      <c r="B323" s="9"/>
+      <c r="C323" s="9"/>
+      <c r="E323" s="9"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="10"/>
-      <c r="B324" s="11"/>
-      <c r="C324" s="11"/>
-      <c r="E324" s="11"/>
+      <c r="A324" s="8"/>
+      <c r="B324" s="9"/>
+      <c r="C324" s="9"/>
+      <c r="E324" s="9"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="10"/>
-      <c r="B325" s="11"/>
-      <c r="C325" s="11"/>
-      <c r="E325" s="11"/>
+      <c r="A325" s="8"/>
+      <c r="B325" s="9"/>
+      <c r="C325" s="9"/>
+      <c r="E325" s="9"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="10"/>
-      <c r="B326" s="11"/>
-      <c r="C326" s="11"/>
-      <c r="E326" s="11"/>
+      <c r="A326" s="8"/>
+      <c r="B326" s="9"/>
+      <c r="C326" s="9"/>
+      <c r="E326" s="9"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="10"/>
-      <c r="B327" s="11"/>
-      <c r="C327" s="11"/>
-      <c r="E327" s="11"/>
+      <c r="A327" s="8"/>
+      <c r="B327" s="9"/>
+      <c r="C327" s="9"/>
+      <c r="E327" s="9"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="10"/>
-      <c r="B328" s="11"/>
-      <c r="C328" s="11"/>
-      <c r="E328" s="11"/>
+      <c r="A328" s="8"/>
+      <c r="B328" s="9"/>
+      <c r="C328" s="9"/>
+      <c r="E328" s="9"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="10"/>
-      <c r="B329" s="11"/>
-      <c r="C329" s="11"/>
-      <c r="E329" s="11"/>
+      <c r="A329" s="8"/>
+      <c r="B329" s="9"/>
+      <c r="C329" s="9"/>
+      <c r="E329" s="9"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="10"/>
-      <c r="B330" s="11"/>
-      <c r="C330" s="11"/>
-      <c r="E330" s="11"/>
+      <c r="A330" s="8"/>
+      <c r="B330" s="9"/>
+      <c r="C330" s="9"/>
+      <c r="E330" s="9"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="10"/>
-      <c r="B331" s="11"/>
-      <c r="C331" s="11"/>
-      <c r="E331" s="11"/>
+      <c r="A331" s="8"/>
+      <c r="B331" s="9"/>
+      <c r="C331" s="9"/>
+      <c r="E331" s="9"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="10"/>
-      <c r="B332" s="11"/>
-      <c r="C332" s="11"/>
-      <c r="E332" s="11"/>
+      <c r="A332" s="8"/>
+      <c r="B332" s="9"/>
+      <c r="C332" s="9"/>
+      <c r="E332" s="9"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="10"/>
-      <c r="B333" s="11"/>
-      <c r="C333" s="11"/>
-      <c r="E333" s="11"/>
+      <c r="A333" s="8"/>
+      <c r="B333" s="9"/>
+      <c r="C333" s="9"/>
+      <c r="E333" s="9"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="10"/>
-      <c r="B334" s="11"/>
-      <c r="C334" s="11"/>
-      <c r="E334" s="11"/>
+      <c r="A334" s="8"/>
+      <c r="B334" s="9"/>
+      <c r="C334" s="9"/>
+      <c r="E334" s="9"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="10"/>
-      <c r="B335" s="11"/>
-      <c r="C335" s="11"/>
-      <c r="E335" s="11"/>
+      <c r="A335" s="8"/>
+      <c r="B335" s="9"/>
+      <c r="C335" s="9"/>
+      <c r="E335" s="9"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="10"/>
-      <c r="B336" s="11"/>
-      <c r="C336" s="11"/>
-      <c r="E336" s="11"/>
+      <c r="A336" s="8"/>
+      <c r="B336" s="9"/>
+      <c r="C336" s="9"/>
+      <c r="E336" s="9"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="10"/>
-      <c r="B337" s="11"/>
-      <c r="C337" s="11"/>
-      <c r="E337" s="11"/>
+      <c r="A337" s="8"/>
+      <c r="B337" s="9"/>
+      <c r="C337" s="9"/>
+      <c r="E337" s="9"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="10"/>
-      <c r="B338" s="11"/>
-      <c r="C338" s="11"/>
-      <c r="E338" s="11"/>
+      <c r="A338" s="8"/>
+      <c r="B338" s="9"/>
+      <c r="C338" s="9"/>
+      <c r="E338" s="9"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="10"/>
-      <c r="B339" s="11"/>
-      <c r="C339" s="11"/>
-      <c r="E339" s="11"/>
+      <c r="A339" s="8"/>
+      <c r="B339" s="9"/>
+      <c r="C339" s="9"/>
+      <c r="E339" s="9"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="10"/>
-      <c r="B340" s="11"/>
-      <c r="C340" s="11"/>
-      <c r="E340" s="11"/>
+      <c r="A340" s="8"/>
+      <c r="B340" s="9"/>
+      <c r="C340" s="9"/>
+      <c r="E340" s="9"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="10"/>
-      <c r="B341" s="11"/>
-      <c r="C341" s="11"/>
-      <c r="E341" s="11"/>
+      <c r="A341" s="8"/>
+      <c r="B341" s="9"/>
+      <c r="C341" s="9"/>
+      <c r="E341" s="9"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="10"/>
-      <c r="B342" s="11"/>
-      <c r="C342" s="11"/>
-      <c r="E342" s="11"/>
+      <c r="A342" s="8"/>
+      <c r="B342" s="9"/>
+      <c r="C342" s="9"/>
+      <c r="E342" s="9"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="10"/>
-      <c r="B343" s="11"/>
-      <c r="C343" s="11"/>
-      <c r="E343" s="11"/>
+      <c r="A343" s="8"/>
+      <c r="B343" s="9"/>
+      <c r="C343" s="9"/>
+      <c r="E343" s="9"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="10"/>
-      <c r="B344" s="11"/>
-      <c r="C344" s="11"/>
-      <c r="E344" s="11"/>
+      <c r="A344" s="8"/>
+      <c r="B344" s="9"/>
+      <c r="C344" s="9"/>
+      <c r="E344" s="9"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="10"/>
-      <c r="B345" s="11"/>
-      <c r="C345" s="11"/>
-      <c r="E345" s="11"/>
+      <c r="A345" s="8"/>
+      <c r="B345" s="9"/>
+      <c r="C345" s="9"/>
+      <c r="E345" s="9"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="10"/>
-      <c r="B346" s="11"/>
-      <c r="C346" s="11"/>
-      <c r="E346" s="11"/>
+      <c r="A346" s="8"/>
+      <c r="B346" s="9"/>
+      <c r="C346" s="9"/>
+      <c r="E346" s="9"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="10"/>
-      <c r="B347" s="11"/>
-      <c r="C347" s="11"/>
-      <c r="E347" s="11"/>
+      <c r="A347" s="8"/>
+      <c r="B347" s="9"/>
+      <c r="C347" s="9"/>
+      <c r="E347" s="9"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="10"/>
-      <c r="B348" s="11"/>
-      <c r="C348" s="11"/>
-      <c r="E348" s="11"/>
+      <c r="A348" s="8"/>
+      <c r="B348" s="9"/>
+      <c r="C348" s="9"/>
+      <c r="E348" s="9"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="10"/>
-      <c r="B349" s="11"/>
-      <c r="C349" s="11"/>
-      <c r="E349" s="11"/>
+      <c r="A349" s="8"/>
+      <c r="B349" s="9"/>
+      <c r="C349" s="9"/>
+      <c r="E349" s="9"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="10"/>
-      <c r="B350" s="11"/>
-      <c r="C350" s="11"/>
+      <c r="A350" s="8"/>
+      <c r="B350" s="9"/>
+      <c r="C350" s="9"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="10"/>
-      <c r="B351" s="11"/>
-      <c r="C351" s="11"/>
+      <c r="A351" s="8"/>
+      <c r="B351" s="9"/>
+      <c r="C351" s="9"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="10"/>
-      <c r="B352" s="11"/>
-      <c r="C352" s="11"/>
+      <c r="A352" s="8"/>
+      <c r="B352" s="9"/>
+      <c r="C352" s="9"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="10"/>
-      <c r="B353" s="11"/>
-      <c r="C353" s="11"/>
+      <c r="A353" s="8"/>
+      <c r="B353" s="9"/>
+      <c r="C353" s="9"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="10"/>
-      <c r="B354" s="11"/>
-      <c r="C354" s="11"/>
+      <c r="A354" s="8"/>
+      <c r="B354" s="9"/>
+      <c r="C354" s="9"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="10"/>
-      <c r="B355" s="11"/>
-      <c r="C355" s="11"/>
+      <c r="A355" s="8"/>
+      <c r="B355" s="9"/>
+      <c r="C355" s="9"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="10"/>
-      <c r="B356" s="11"/>
-      <c r="C356" s="11"/>
+      <c r="A356" s="8"/>
+      <c r="B356" s="9"/>
+      <c r="C356" s="9"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="10"/>
-      <c r="B357" s="11"/>
-      <c r="C357" s="11"/>
+      <c r="A357" s="8"/>
+      <c r="B357" s="9"/>
+      <c r="C357" s="9"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="10"/>
-      <c r="B358" s="11"/>
-      <c r="C358" s="11"/>
+      <c r="A358" s="8"/>
+      <c r="B358" s="9"/>
+      <c r="C358" s="9"/>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="10"/>
-      <c r="B359" s="11"/>
-      <c r="C359" s="11"/>
+      <c r="A359" s="8"/>
+      <c r="B359" s="9"/>
+      <c r="C359" s="9"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="10"/>
-      <c r="B360" s="11"/>
-      <c r="C360" s="11"/>
+      <c r="A360" s="8"/>
+      <c r="B360" s="9"/>
+      <c r="C360" s="9"/>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="10"/>
-      <c r="B361" s="11"/>
-      <c r="C361" s="11"/>
+      <c r="A361" s="8"/>
+      <c r="B361" s="9"/>
+      <c r="C361" s="9"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="10"/>
-      <c r="B362" s="11"/>
-      <c r="C362" s="11"/>
+      <c r="A362" s="8"/>
+      <c r="B362" s="9"/>
+      <c r="C362" s="9"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="10"/>
-      <c r="B363" s="11"/>
-      <c r="C363" s="11"/>
+      <c r="A363" s="8"/>
+      <c r="B363" s="9"/>
+      <c r="C363" s="9"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="10"/>
-      <c r="B364" s="11"/>
-      <c r="C364" s="11"/>
+      <c r="A364" s="8"/>
+      <c r="B364" s="9"/>
+      <c r="C364" s="9"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="10"/>
-      <c r="B365" s="11"/>
-      <c r="C365" s="11"/>
+      <c r="A365" s="8"/>
+      <c r="B365" s="9"/>
+      <c r="C365" s="9"/>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="10"/>
-      <c r="B366" s="11"/>
-      <c r="C366" s="11"/>
+      <c r="A366" s="8"/>
+      <c r="B366" s="9"/>
+      <c r="C366" s="9"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="10"/>
-      <c r="B367" s="11"/>
-      <c r="C367" s="11"/>
+      <c r="A367" s="8"/>
+      <c r="B367" s="9"/>
+      <c r="C367" s="9"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="10"/>
-      <c r="B368" s="11"/>
-      <c r="C368" s="11"/>
+      <c r="A368" s="8"/>
+      <c r="B368" s="9"/>
+      <c r="C368" s="9"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="10"/>
-      <c r="B369" s="11"/>
-      <c r="C369" s="11"/>
+      <c r="A369" s="8"/>
+      <c r="B369" s="9"/>
+      <c r="C369" s="9"/>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="10"/>
-      <c r="B370" s="11"/>
-      <c r="C370" s="11"/>
+      <c r="A370" s="8"/>
+      <c r="B370" s="9"/>
+      <c r="C370" s="9"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="10"/>
-      <c r="B371" s="11"/>
-      <c r="C371" s="11"/>
+      <c r="A371" s="8"/>
+      <c r="B371" s="9"/>
+      <c r="C371" s="9"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="10"/>
-      <c r="B372" s="11"/>
-      <c r="C372" s="11"/>
+      <c r="A372" s="8"/>
+      <c r="B372" s="9"/>
+      <c r="C372" s="9"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="10"/>
-      <c r="B373" s="11"/>
-      <c r="C373" s="11"/>
+      <c r="A373" s="8"/>
+      <c r="B373" s="9"/>
+      <c r="C373" s="9"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="10"/>
-      <c r="B374" s="11"/>
-      <c r="C374" s="11"/>
+      <c r="A374" s="8"/>
+      <c r="B374" s="9"/>
+      <c r="C374" s="9"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="10"/>
-      <c r="B375" s="11"/>
-      <c r="C375" s="11"/>
+      <c r="A375" s="8"/>
+      <c r="B375" s="9"/>
+      <c r="C375" s="9"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="10"/>
-      <c r="B376" s="11"/>
-      <c r="C376" s="11"/>
+      <c r="A376" s="8"/>
+      <c r="B376" s="9"/>
+      <c r="C376" s="9"/>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="10"/>
-      <c r="B377" s="11"/>
-      <c r="C377" s="11"/>
+      <c r="A377" s="8"/>
+      <c r="B377" s="9"/>
+      <c r="C377" s="9"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="10"/>
-      <c r="B378" s="11"/>
-      <c r="C378" s="11"/>
+      <c r="A378" s="8"/>
+      <c r="B378" s="9"/>
+      <c r="C378" s="9"/>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="10"/>
-      <c r="B379" s="11"/>
-      <c r="C379" s="11"/>
+      <c r="A379" s="8"/>
+      <c r="B379" s="9"/>
+      <c r="C379" s="9"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="10"/>
-      <c r="B380" s="11"/>
-      <c r="C380" s="11"/>
+      <c r="A380" s="8"/>
+      <c r="B380" s="9"/>
+      <c r="C380" s="9"/>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="10"/>
-      <c r="B381" s="11"/>
-      <c r="C381" s="11"/>
+      <c r="A381" s="8"/>
+      <c r="B381" s="9"/>
+      <c r="C381" s="9"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="10"/>
-      <c r="B382" s="11"/>
-      <c r="C382" s="11"/>
+      <c r="A382" s="8"/>
+      <c r="B382" s="9"/>
+      <c r="C382" s="9"/>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="10"/>
-      <c r="B383" s="11"/>
-      <c r="C383" s="11"/>
+      <c r="A383" s="8"/>
+      <c r="B383" s="9"/>
+      <c r="C383" s="9"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="10"/>
-      <c r="B384" s="11"/>
-      <c r="C384" s="11"/>
+      <c r="A384" s="8"/>
+      <c r="B384" s="9"/>
+      <c r="C384" s="9"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="10"/>
-      <c r="B385" s="11"/>
-      <c r="C385" s="11"/>
+      <c r="A385" s="8"/>
+      <c r="B385" s="9"/>
+      <c r="C385" s="9"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="10"/>
-      <c r="B386" s="11"/>
-      <c r="C386" s="11"/>
+      <c r="A386" s="8"/>
+      <c r="B386" s="9"/>
+      <c r="C386" s="9"/>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="10"/>
-      <c r="B387" s="11"/>
-      <c r="C387" s="11"/>
+      <c r="A387" s="8"/>
+      <c r="B387" s="9"/>
+      <c r="C387" s="9"/>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="10"/>
-      <c r="B388" s="11"/>
-      <c r="C388" s="11"/>
+      <c r="A388" s="8"/>
+      <c r="B388" s="9"/>
+      <c r="C388" s="9"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="10"/>
-      <c r="B389" s="11"/>
-      <c r="C389" s="11"/>
+      <c r="A389" s="8"/>
+      <c r="B389" s="9"/>
+      <c r="C389" s="9"/>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="10"/>
-      <c r="B390" s="11"/>
-      <c r="C390" s="11"/>
+      <c r="A390" s="8"/>
+      <c r="B390" s="9"/>
+      <c r="C390" s="9"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="10"/>
-      <c r="B391" s="11"/>
-      <c r="C391" s="11"/>
+      <c r="A391" s="8"/>
+      <c r="B391" s="9"/>
+      <c r="C391" s="9"/>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="10"/>
-      <c r="B392" s="11"/>
-      <c r="C392" s="11"/>
+      <c r="A392" s="8"/>
+      <c r="B392" s="9"/>
+      <c r="C392" s="9"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="10"/>
-      <c r="B393" s="11"/>
-      <c r="C393" s="11"/>
+      <c r="A393" s="8"/>
+      <c r="B393" s="9"/>
+      <c r="C393" s="9"/>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="10"/>
-      <c r="B394" s="11"/>
-      <c r="C394" s="11"/>
+      <c r="A394" s="8"/>
+      <c r="B394" s="9"/>
+      <c r="C394" s="9"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="10"/>
-      <c r="B395" s="11"/>
-      <c r="C395" s="11"/>
+      <c r="A395" s="8"/>
+      <c r="B395" s="9"/>
+      <c r="C395" s="9"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="10"/>
-      <c r="B396" s="11"/>
-      <c r="C396" s="11"/>
+      <c r="A396" s="8"/>
+      <c r="B396" s="9"/>
+      <c r="C396" s="9"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="10"/>
-      <c r="B397" s="11"/>
-      <c r="C397" s="11"/>
+      <c r="A397" s="8"/>
+      <c r="B397" s="9"/>
+      <c r="C397" s="9"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="10"/>
-      <c r="B398" s="11"/>
-      <c r="C398" s="11"/>
+      <c r="A398" s="8"/>
+      <c r="B398" s="9"/>
+      <c r="C398" s="9"/>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="10"/>
-      <c r="B399" s="11"/>
-      <c r="C399" s="11"/>
+      <c r="A399" s="8"/>
+      <c r="B399" s="9"/>
+      <c r="C399" s="9"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="10"/>
-      <c r="B400" s="11"/>
-      <c r="C400" s="11"/>
+      <c r="A400" s="8"/>
+      <c r="B400" s="9"/>
+      <c r="C400" s="9"/>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="10"/>
-      <c r="B401" s="11"/>
-      <c r="C401" s="11"/>
+      <c r="A401" s="8"/>
+      <c r="B401" s="9"/>
+      <c r="C401" s="9"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="10"/>
-      <c r="B402" s="11"/>
-      <c r="C402" s="11"/>
+      <c r="A402" s="8"/>
+      <c r="B402" s="9"/>
+      <c r="C402" s="9"/>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="10"/>
-      <c r="B403" s="11"/>
-      <c r="C403" s="11"/>
+      <c r="A403" s="8"/>
+      <c r="B403" s="9"/>
+      <c r="C403" s="9"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="10"/>
-      <c r="B404" s="11"/>
-      <c r="C404" s="11"/>
+      <c r="A404" s="8"/>
+      <c r="B404" s="9"/>
+      <c r="C404" s="9"/>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="10"/>
-      <c r="B405" s="11"/>
-      <c r="C405" s="11"/>
+      <c r="A405" s="8"/>
+      <c r="B405" s="9"/>
+      <c r="C405" s="9"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="10"/>
-      <c r="B406" s="11"/>
-      <c r="C406" s="11"/>
+      <c r="A406" s="8"/>
+      <c r="B406" s="9"/>
+      <c r="C406" s="9"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="10"/>
-      <c r="B407" s="11"/>
-      <c r="C407" s="11"/>
+      <c r="A407" s="8"/>
+      <c r="B407" s="9"/>
+      <c r="C407" s="9"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="10"/>
-      <c r="B408" s="11"/>
-      <c r="C408" s="11"/>
+      <c r="A408" s="8"/>
+      <c r="B408" s="9"/>
+      <c r="C408" s="9"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="10"/>
-      <c r="B409" s="11"/>
-      <c r="C409" s="11"/>
+      <c r="A409" s="8"/>
+      <c r="B409" s="9"/>
+      <c r="C409" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/歌曲資料庫.xlsx
+++ b/歌曲資料庫.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Documents\GitHub\music_classification_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D20FD4-AA2E-4B16-BF16-B5A085675311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F34A48-0912-4DC4-8956-49FE8F4CD30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8340" yWindow="2076" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig_datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="test_datasets" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orig_datasets!$A$1:$F$48</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="266">
   <si>
     <t>歌名</t>
   </si>
@@ -1528,9 +1532,6 @@
     <t>祢的救恩</t>
   </si>
   <si>
-    <t>[Verse 1] 黑夜籠罩　似乎不見光 陰間繩索纏繞著我們 求祢睜眼看　側耳聽禱告 祢百姓在這裡祈求 [Verse 2] 祢的信實是我們盼望 祢的應許　黑暗中曙光 祢必睜眼看　側耳聽禱告 這百姓是祢所愛的 [Pre-Chorus] 急難之中　我們回轉向祢 祢是主　承認祢是主 求祢轉意　不發祢的烈怒 祢是主　祢是救我們的主 [Chorus] 求祢醫治　求祢憐憫 求祢興起　仇敵就退去 我們呼求　阿爸天父 祢的救恩　必降臨這地</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=dg1Rp4OHlg8&amp;list=PLEY_M7xVVeAvl_eVApGNgYCIa8lbo3y8F&amp;index=6</t>
   </si>
   <si>
@@ -1656,12 +1657,1537 @@
 難言的喜樂充滿在我心 我終於到家了</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>祂是你的幫助</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jEX-fH02u5I&amp;list=PL4496D97F907CEBB3&amp;index=9&amp;pbjreload=101</t>
+  </si>
+  <si>
+    <t>你的軟弱祂都知道　祂能體會你的需要
+祂定的日子　你尚未度一日
+都已記在祂冊上
+所以你要專心仰望　專心尋求就必尋見
+儘管把挫折　憑信心交給祂
+讓祂為你來成就一切
+[chorus]
+祂必不讓你雙腳動搖　保護你的也從不停歇
+當你向山舉目　你的幫助
+將從造天地的耶和華而來
+保護你的就是耶和華　白天黑夜都不必懼怕
+不管你出你入　你的幫助
+從今時直到永永遠遠　都在你的身旁
+[bridge]
+你求告祂　祂就應允你
+專心愛祂　祂必搭救你
+在急難中　祂與你同行　讓祂幫助你
+祂要差派使者保護你　祂要用手一生托著你
+祂要讓你享長久生命　讓祂幫助你</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Verse 1] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黑夜籠罩　似乎不見光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陰間繩索纏繞著我們</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>求祢睜眼看　側耳聽禱告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢百姓在這裡祈求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> [Verse 2] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢的信實是我們盼望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢的應許　黑暗中曙光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢必睜眼看　側耳聽禱告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這百姓是祢所愛的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> [Pre-Chorus] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>急難之中　我們回轉向祢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢是主　承認祢是主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>求祢轉意　不發祢的烈怒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢是主　祢是救我們的主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> [Chorus] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>求祢醫治　求祢憐憫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>求祢興起　仇敵就退去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們呼求　阿爸天父</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢的救恩　必降臨這地</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信靠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>media/train_music/song_iht6tGG.mp3</t>
+  </si>
+  <si>
+    <t>在這裡</t>
+  </si>
+  <si>
+    <t>神的子民合一聚集_x000D_
+熱切期盼遇見祢_x000D_
+天要敞開　神的道傳遍_x000D_
+因為我們渴慕尋求祢_x000D_
+_x000D_
+神的子民合一聚集_x000D_
+熱切期盼遇見祢_x000D_
+天要敞開　神的道傳遍_x000D_
+因為我們渴慕尋求祢_x000D_
+_x000D_
+在這裡　在這裡　耶穌祢現在在這裡_x000D_
+我相信　我相信　喜樂的江河在這裡_x000D_
+榮耀彰顯　奇妙神蹟將顯明_x000D_
+天上國度降臨在這裡_x000D_
+_x000D_
+祢的靈在這裡　這裡就有自由_x000D_
+聖靈自由運行無止盡_x000D_
+移山倒海信心　堅定不斷升起_x000D_
+期待偉大神做奇妙事</t>
+  </si>
+  <si>
+    <t>檔案路徑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nJBLeMrhu9w</t>
+  </si>
+  <si>
+    <t>讚美之權</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/15 test</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字架的傳達者</t>
+  </si>
+  <si>
+    <t>以斯拉</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mpugTxcAXn0&amp;list=RDShPPQxkkWBE&amp;index=8</t>
+  </si>
+  <si>
+    <t>我是極微小的人 罪人中的罪魁 雖然如此 主呼召我 我懇切期待盼望 不再羞愧 放膽傳揚主的十架 無論我往何處去 只要是為了主 我願意傳揚 那十字架 我願背起十字架 將基督馨香之氣 傳揚到世界各地 如今不論生或死 都是為了主榮耀 不論生或死 我屬於主 十字架的能力 十字架的盼望 在我裡面有主活著 我的愛 我的十字架</t>
+  </si>
+  <si>
+    <t>奉獻</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我美好救主-CHC</t>
+  </si>
+  <si>
+    <t>CHC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zABYurymgV4</t>
+  </si>
+  <si>
+    <t>回想那一刻 曾被愛抱緊 一路有主的旅行 無數破碎傷痕 由你撫平 賜我新生命 心靈得安寧 在世人眼中 我膽怯戰兢 你話語賜我信心 當我抬起頭 你不離棄我 緊緊抱住接納我 我美好救主 阿爸父 帶我脫離 黑暗深幽谷 在你眼中 遠勝過珍珠 天父的大愛 我無法細數 我不再畏懼 高山低谷 因你同行 在一路上保護 唯有你能 使哀苦變祝福 永遠信靠我救主 所需一切盡都滿足 因豐盛全能天父 生命每一步 都有你看顧 未來道路 你手中堅固</t>
+  </si>
+  <si>
+    <t>盼望聖靈</t>
+  </si>
+  <si>
+    <t>Ivan Handojo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VLGTCr1uv30</t>
+  </si>
+  <si>
+    <t>將我眼目 聚焦於祢 喔耶穌 將我全心 來回應祢的愛 放下恐懼 我全人降服於祢 我王 我敬拜祢 主我渴慕祢同在 主我渴慕祢同在 盼望聖靈 使我更加靠近祢 生命活泉 湧流進入我心 主我渴慕祢同在 主我渴慕祢同在 盼望聖靈 使我更加靠近祢 生命活泉 湧流進入我心 當我敬拜祢 從我心深處 呼求祢 傾倒我全心全意 讚美 從我心深處 我呼求祢 全然降服祢 向祢唱出愛的旋律 毫無保留 全然屬於祢 從我心深處 我敬拜祢 主唯有祢</t>
+  </si>
+  <si>
+    <t>從太陽出來之地 直到日落之處 靜默的都要歡呼 我們在祢寶座前 驚嘆祢的作為 宣告祢榮耀掌權 Ho ha ye yan Ho ha ye yan 我願列國都興起 領受豐盛應許 跨入自己的命定 大步的向前奔跑 為主祢名站立 願祢的國度降臨 賜下祢的憐憫 光照這地 帶來復興 醫治我的土地 同心合意 祝福降臨</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nFeMi8UO6kE</t>
+  </si>
+  <si>
+    <t>宣告</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿越</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sr-Oh6mD_Do</t>
+  </si>
+  <si>
+    <t>祢堅定的愛 向我們顯明 祢的良善 我全然降服 (祢)釋放祢同在 祢的慈愛 Ho ha i ye yan Ho ha i ye yan 祢的愛讓我穿越 (所有試煉 艱難危險) 祢的愛讓我看見 (祢的良善 祢的慈愛) 祢的愛讓我穿越 (所有試煉 艱難危險) 祢的愛讓我看見 堅定不變 直到永遠 | Rap | 祢說祢是昔在今在永在的神 而且沒有限制 這世界還沒有我 祢已經先認識我 我的過去現在未來 也都在祢的手中 只有祢能夠打破一切的詛咒 我現在想告訴祢 耶穌唯有祢是唯一 祢犧牲無條件的愛 把我從爛泥中拯救出來 祢說祢與我同在 永遠都不會離開 因為祢偉大的愛 Mhway su balay</t>
+  </si>
+  <si>
+    <t>何等榮美的名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢就是太初神的道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>至高主與神同在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在造物中隱藏祢榮耀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>今顯明在基督裡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這是何等榮美的名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這是何等榮美的名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我王耶穌基督聖名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這是何等榮美的名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無一事物相比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這是何等榮美的名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>耶穌的聖名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>為了與我們同享天堂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢帶著天國降臨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我罪雖重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>但祢愛更深</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們永遠不分離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>死困不住祢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>幔子已挪去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>罪和陰間屈服於祢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與天堂歡慶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢榮耀顯明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>死裡復活祢得勝利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢無所匹敵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢無人相比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>耶穌掌權直到永遠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國度屬於祢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>榮耀屬於祢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>超乎一切我主聖名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這是何等大能的名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這是何等大能的名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我王耶穌基督聖名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這是何等大能的名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無一事物相比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這是何等大能的名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>耶穌的聖名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰望</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=68QAVcG-Fyo</t>
+  </si>
+  <si>
+    <t>恩典之洋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你在水面上呼喚著我 跨入未知 深怕失落 在奧秘中當我尋見你 在深海裡 我仍站立 我全心呼求你聖名 我的眼單單仰望你 大海翻騰 我卻安息 在你懷裡 因你屬我 而我屬你 水深之處 你恩典湧流 你手掌權 牽引著我 就在我深陷恐懼軟弱 你永不失手 扶持著我 聖靈引領 使我信心沒有界線 讓我能行走在水面 呼召我快跑跟隨 你牽引我 讓我更深與你同行 使我信心更加堅定 在我救主同在裡 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bVB96gB9c_E</t>
+  </si>
+  <si>
+    <t>藏我在 翅膀蔭下 遮蓋我 在你大能手中 當大海翻騰波濤洶湧 我與你展翅暴風上空 父你仍作王在洪水中 我要安靜知你是神 我靈安息 在基督裡 你大能 使我安然信靠</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>安靜</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-YRgF25YBIg</t>
+  </si>
+  <si>
+    <t>這就是愛了</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q8L33bd2B6U</t>
+  </si>
+  <si>
+    <t>愛是一種忍耐 Love is patience alive 愛永不更改 Love, it does not change 愛是恩慈良善 Love is good and is kind 愛永不失敗 Love, it never fails ﹥Verse2 愛是接納等待 Love embraces and waits 愛無所不在 Love is always present 愛是充滿盼望 Love is full of hope 愛從神而來 Love, it flows from God 愛從神而來 Love, it flows from God ﹥Chorus 祢為我降生 祢為我降生 You were born to save, You were born for me 為我罪釘上十架 這就是愛了 On the cross You bore my sin, All of this is Love 祢為我降生 祢為我降生 You were born to save, You were born for me 為我罪釘上十架 這就是愛了 On the cross You bore my sin, All of this is Love ﹥Bridge 耶穌祢已復活 如今已復活 Jesus You have risen, You are now alive 勝過死亡權勢 是愛完全了我 Conquered death completely, Your love has made me whole 耶穌祢已復活 如今已復活 Jesus You have risen, You are now alive 勝過死亡權勢 是愛完全了我 Conquered death completely, Your love has made me whole</t>
+  </si>
+  <si>
+    <t>獻上讚美祭</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FDz_iakSUFY</t>
+  </si>
+  <si>
+    <t>(A)讓我們來 讚美主聖名， 榮耀尊貴 一切屬於祢， 同心合一 稱頌主聖名， 讓我們能 更多經歷祢。 (B1)一起來 獻上讚美祭， 來歌頌高舉耶穌聖名， 耶穌，奇妙聖名。 (B2)一起來 倚靠不要放棄， 全心來 相信宣告勝利， 耶穌，榮耀祢名，榮耀祢的名。 (B3)一起來 倚靠不要放棄， 全心來 相信宣告勝利， 耶穌，榮耀祢名。 (C)我要活出祢旨意，宣揚好消息， 願祢聖名被高舉，全地都來讚美祢。</t>
+  </si>
+  <si>
+    <t>我要全心讚美</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bs-pQZ9b0OU</t>
+  </si>
+  <si>
+    <t>全心感謝 全心讚美 進入祢的院 全心頌讚 獻上為祭 是嘴唇的果子 在祢裡面 一無罣慮 喜樂滿溢 常常感謝 不住禱告 盼望在於祢 [Chorus] 我要全心讚美 跳舞頌揚祢名 在祢殿中一日 勝過在世上千日 我要全心讚美 讚美還要讚美 不停 義人棚裡歡呼聲永不息</t>
+  </si>
+  <si>
+    <t>讚美</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>將天敞開</t>
+  </si>
+  <si>
+    <t>將天敞開　祢的榮耀降下來　將天敞開　祢的同在降下來 將天敞開　祢的榮耀降下來　萬國讚嘆祢　祢是榮耀君王 [Chorus] 天上地下　合一敬拜　歡呼耶穌基督　聖潔羔羊　榮耀歸於祢 天上地下　在永恆裡敬拜　哈利路亞　哈利路亞 [Bridge] 神就在這裡　我們歡迎祢　讓一切焦點轉向祢 神就在這裡　我們歡迎祢　寶座前敬拜不停息</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OVUPLFLdmpE&amp;list=PLphkYzimsUpNVbA24oWU0dG9Ku9J2rkpr</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kaeYNXI2ziY&amp;list=PLphkYzimsUpNVbA24oWU0dG9Ku9J2rkpr&amp;index=4</t>
+  </si>
+  <si>
+    <t>我主耶穌真好</t>
+  </si>
+  <si>
+    <t>新酒</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aGBEvngEPns&amp;list=PLphkYzimsUpNVbA24oWU0dG9Ku9J2rkpr&amp;index=5</t>
+  </si>
+  <si>
+    <t>我感覺主恩膏充滿我們中間，神的聖靈正在運行，帶下醫治的恩典，
+我看見主聖靈正澆灌眾教會，興起祂所揀選榮耀子民。（x2）
+今天是主所命定的日子，自由的時刻已來到，
+罪的鎖鏈祂完全都斷開，來歡呼讚美祂聖，Hey！
+新酒澆灌，帶下新鮮恩膏，說不盡的喜樂，充滿我，
+新油流下，帶出大能恩膏，來宣揚我主，榮耀彰顯。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖靈爆發</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yiwS80LpYbM&amp;list=PLphkYzimsUpNVbA24oWU0dG9Ku9J2rkpr&amp;index=9</t>
+  </si>
+  <si>
+    <t>阿爸父 諸天呼喊你聖名
+大聲唱 讓讚美充滿這地
+你聽見嗎 天堂正在入侵全地
+天堂正在入侵全地
+Spirit Break Out 城牆倒塌
+Spirit Break Out 天堂降下
+大君王 我們高舉你聖名
+你榮耀 從天震動到地心
+大復興 我要看到你國降臨
+我要看到你國降臨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦 哦
+大山小山都要來讚美
+太陽月亮星星來讚美
+海洋與河流齊來讚美耶和華
+大山小山都要來讚美
+太陽月亮星星來讚美
+萬物要歌唱齊來讚美耶和華
+哈利路亞我要唱哈利路亞我要跳
+哈利路亞我要大聲歡呼讚美
+哈利路亞我要唱哈利路亞我要跳
+哈利路亞我要大聲歡呼讚美
+哦 哦
+我要專心專心來愛他
+將我的心的心獻給他
+將我每一天化做喜樂的詩歌
+我要專心專心敬拜他
+我要歡呼歡呼讚美他
+將我每一天化做喜樂的詩歌
+哈利路亞我要唱哈利路亞我要跳
+哈利路亞我要大聲歡呼讚美
+哈利路亞我要唱哈利路亞我要跳
+哈利路亞我要大聲歡呼讚美
+哈利路亞我要唱哈利路亞我要跳
+哈利路亞我要大聲歡呼讚美
+哈利路亞我要唱哈利路亞我要跳
+哈利路亞我要大聲歡呼讚美
+哦 哦</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x--7r9JdMWM&amp;list=PLphkYzimsUpNVbA24oWU0dG9Ku9J2rkpr&amp;index=14</t>
+  </si>
+  <si>
+    <t>齊來讚美</t>
+  </si>
+  <si>
+    <t>極大的聲音</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ADg-yNGjPVA&amp;list=PLphkYzimsUpNVbA24oWU0dG9Ku9J2rkpr&amp;index=16</t>
+  </si>
+  <si>
+    <t>主祢拯救我
+在大水混亂之中
+主祢保守我
+與仇敵爭戰時候 
+主祢醫治我
+在疾病痛苦之中
+主祢應允我
+在呼求祢的時候 
+[Chorus1]
+哈利路亞   [哈利路亞] 
+我要發出極大的聲音
+ [我要發出極大的聲音]
+哈利路亞   [哈利路亞] 
+我要擊鼓跳舞來讚美祢
+  [我要擊鼓跳舞來讚美祢]
+哈利路亞   [哈利路亞] 
+我要大聲大聲來敬拜祢
+ [我要大聲大聲來敬拜祢]
+哈利路亞   [哈利路亞] 
+我要跳舞跳舞來讚美祢
+  [我要跳舞跳舞來讚美祢]
+[Bridge]
+喜樂油代替悲哀
+讚美衣代替憂傷
+祢賜華冠於我們
+在生命中做王</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的事將要成就</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HUBC6SN5BXw&amp;list=PLphkYzimsUpNVbA24oWU0dG9Ku9J2rkpr&amp;index=29</t>
+  </si>
+  <si>
+    <t>祢是做新事的神
+我要向祢唱新歌
+恩典憐憫每天都是新的
+新酒新皮袋每天要賜下
+新的事　新的事將要成就　新的恩膏　新的恩寵
+我們要　我們要唱新歌　稱讚我們神為高
+新的事　新的事將要成就　新的恩典　新的盼望
+我們要　我們要唱新歌　充滿神的榮耀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝過死亡的權勢</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fFbKG9N15Ew&amp;list=PLphkYzimsUpNVbA24oWU0dG9Ku9J2rkpr&amp;index=36</t>
+  </si>
+  <si>
+    <t>全地的人都將要看見 祢是偉大的真光 黑暗的世界被祢照亮 祢是唯一的盼望 只要倚靠主聖名 就不至灰心沮喪 因我主耶穌活著 祂永遠活著 勝過死亡的權勢 祂已從死裡復活 打破所有的枷鎖 完全釋放我 只要全心相信 口呼求耶穌的名 就必要得救 就必要得救 耶穌我主 耶穌我主 全地的救主 耶穌我主 耶穌我主 我們的救主</t>
+  </si>
+  <si>
+    <t>突破</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日出就像你的爱
+粉碎夜里的黑暗
+我心中的天堂就是你同在
+你真光充满全世界
+你让生命更新改变
+你让人从死里复活因你的爱
+主你爱总是突破黑暗
+进入我的心 医治释放
+你爱永不离开
+你爱与我同在
+你的爱永远不失败
+你的爱就像火一样
+永恒强烈的渴望
+为我你成了牺牲的羔羊
+使我释放
+你死里复活的那天
+你除去所有的罪孽
+你砍断捆绑的锁炼
+因你的爱
+我们同声歌唱 我们同声歌唱
+我们来欢呼宣扬
+我们属于你全心属于你
+你宝血赎我生命
+我们同声歌唱 我们同声歌唱
+我们来欢呼宣扬
+我们不会停止来赞美你
+我们不会停止来赞美你
+我们不会停止来荣耀你
+我们献上最高的赞美
+在这献上最高的赞美  </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國語</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我要讚美耶和華</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> Wo Yao Zan Mei Ye Han Hua </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>那永不止息的慈愛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> Na Yong Bu Zhi Xi De Ci Ai </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢的恩典每早晨都更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> Ni de En Dian Mei Zao Chen Dou Geng Xin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>每一日我都看見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> Mei Yi Ri Wo Dou Kan Jian </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祢信實的愛環繞我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> Ni shen Shi De Ai Huan Rao Wo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在我一生年日永不離開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> Zai Wo Yi Sheng Nian Ri Yong Bu Li Kai *</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我主耶穌真好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> Wo Zhu Ye Su Zhen Hao </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>祂實在真美好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> Ta Shi Zai Zhen Mei Hao </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>亙古今日直到永遠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> Gen Gu Jin Ri Zhi Dao Yong Yuan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF030303"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我主耶穌真好</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜樂河流</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=egRnTHQiZW0&amp;list=PLphkYzimsUpNVbA24oWU0dG9Ku9J2rkpr&amp;index=49</t>
+  </si>
+  <si>
+    <t>喜樂河流 來充滿我 生命泉源 來澆灌我 有袮同行 不再懼怕 無論何處 緊緊跟隨 我要walk walk Walk in the river 我要jump jump Jump in the river 我要dance dance Dance in the river of joy</t>
+  </si>
+  <si>
+    <t>1/15 test2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地復興</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1894,8 +3420,22 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2078,6 +3618,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2329,7 +3875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2342,13 +3888,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2375,14 +3915,50 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2742,9 +4318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2776,12 +4352,12 @@
       <c r="F1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="153" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2793,7 +4369,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -2813,7 +4389,7 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2833,7 +4409,7 @@
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2853,7 +4429,7 @@
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2873,7 +4449,7 @@
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -2893,7 +4469,7 @@
       <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2913,7 +4489,7 @@
       <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2933,7 +4509,7 @@
       <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2953,7 +4529,7 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -2973,7 +4549,7 @@
       <c r="C11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2993,7 +4569,7 @@
       <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3013,7 +4589,7 @@
       <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3033,7 +4609,7 @@
       <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -3053,7 +4629,7 @@
       <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3073,7 +4649,7 @@
       <c r="C16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -3093,7 +4669,7 @@
       <c r="C17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -3113,7 +4689,7 @@
       <c r="C18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3133,7 +4709,7 @@
       <c r="C19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -3153,7 +4729,7 @@
       <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -3173,7 +4749,7 @@
       <c r="C21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -3193,7 +4769,7 @@
       <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -3213,7 +4789,7 @@
       <c r="C23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3233,7 +4809,7 @@
       <c r="C24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3253,7 +4829,7 @@
       <c r="C25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3273,7 +4849,7 @@
       <c r="C26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -3293,7 +4869,7 @@
       <c r="C27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3313,7 +4889,7 @@
       <c r="C28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3333,7 +4909,7 @@
       <c r="C29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3344,2358 +4920,2520 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="234.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="14" t="s">
         <v>138</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="270" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="270" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="390" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:6" ht="390" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="E35" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" ht="122.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="E36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="122.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="360" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="225" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="405" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="195" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="225" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="17" t="s">
+      <c r="B41" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="405" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="C41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="210" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="195" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B41" s="17" t="s">
+      <c r="C42" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="315" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="210" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="C43" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="C46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="120" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="180" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="405" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="E76" s="9"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="E80" s="9"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="E81" s="9"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="E83" s="9"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="E84" s="9"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="8"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="E86" s="9"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="E87" s="9"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="E88" s="9"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="8"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="E89" s="9"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="8"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="E90" s="9"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="8"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="E92" s="9"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="E93" s="9"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="E94" s="9"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="8"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="E95" s="9"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="8"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="E96" s="9"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="8"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="E97" s="9"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="8"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="E98" s="9"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="8"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="E99" s="9"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="8"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="E100" s="9"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="8"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="E101" s="9"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="8"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="E102" s="9"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="8"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="E103" s="9"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="8"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="E104" s="9"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="8"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="E105" s="9"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="8"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="E106" s="9"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="8"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="E107" s="9"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="E108" s="9"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="8"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="E109" s="9"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="8"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="E110" s="9"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="8"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="E111" s="9"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="8"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="E112" s="9"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="8"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="E113" s="9"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="8"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="E114" s="9"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="8"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="E115" s="9"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="8"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="E116" s="9"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="8"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="E117" s="9"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="8"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="E118" s="9"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="8"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="8"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="E120" s="9"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="8"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="E121" s="9"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="8"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="E122" s="9"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="8"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="E123" s="9"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="8"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="E124" s="9"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="8"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="E125" s="9"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="8"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="E126" s="9"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="8"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="E127" s="9"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="8"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="E128" s="9"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="8"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="E129" s="9"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="8"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="E130" s="9"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="8"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="E131" s="9"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="8"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="E132" s="9"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="8"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="E133" s="9"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="8"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="E134" s="9"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="8"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="E135" s="9"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="E135" s="7"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="8"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="E136" s="9"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="E136" s="7"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="8"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="E137" s="9"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="E137" s="7"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="8"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="E138" s="9"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="E138" s="7"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="8"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="E139" s="9"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="8"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="E140" s="9"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="8"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="E141" s="9"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="8"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="E142" s="9"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="8"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="E143" s="9"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="E143" s="7"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="8"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="E144" s="9"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="E144" s="7"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="8"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="E145" s="9"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="E145" s="7"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="8"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="E146" s="9"/>
+      <c r="A146" s="6"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="E146" s="7"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="8"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="E147" s="9"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="E147" s="7"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="8"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="E148" s="9"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="8"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="E149" s="9"/>
+      <c r="A149" s="6"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="E149" s="7"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="8"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="E150" s="9"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="E150" s="7"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="8"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="E151" s="9"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="8"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="E152" s="9"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="E152" s="7"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="8"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="E153" s="9"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="E153" s="7"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="8"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="E154" s="9"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="8"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="E155" s="9"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="E155" s="7"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="8"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="E156" s="9"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="E156" s="7"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="8"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="E157" s="9"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="E157" s="7"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="8"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="E158" s="9"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="8"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="E159" s="9"/>
+      <c r="A159" s="6"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="E159" s="7"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="8"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="E160" s="9"/>
+      <c r="A160" s="6"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="8"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="E161" s="9"/>
+      <c r="A161" s="6"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="E161" s="7"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="8"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="E162" s="9"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="E162" s="7"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="8"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="E163" s="9"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="8"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="E164" s="9"/>
+      <c r="A164" s="6"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="E164" s="7"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="8"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="E165" s="9"/>
+      <c r="A165" s="6"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="E165" s="7"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="8"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-      <c r="E166" s="9"/>
+      <c r="A166" s="6"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="8"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="E167" s="9"/>
+      <c r="A167" s="6"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="E167" s="7"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="8"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="E168" s="9"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="E168" s="7"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="8"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="E169" s="9"/>
+      <c r="A169" s="6"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="E169" s="7"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="8"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="E170" s="9"/>
+      <c r="A170" s="6"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="E170" s="7"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="8"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="E171" s="9"/>
+      <c r="A171" s="6"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="E171" s="7"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="8"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="E172" s="9"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="E172" s="7"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="8"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="E173" s="9"/>
+      <c r="A173" s="6"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="E173" s="7"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="8"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="E174" s="9"/>
+      <c r="A174" s="6"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="E174" s="7"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="8"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
-      <c r="E175" s="9"/>
+      <c r="A175" s="6"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="8"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="E176" s="9"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="E176" s="7"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="8"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="E177" s="9"/>
+      <c r="A177" s="6"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="E177" s="7"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="8"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="E178" s="9"/>
+      <c r="A178" s="6"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="E178" s="7"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="8"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="E179" s="9"/>
+      <c r="A179" s="6"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="E179" s="7"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="8"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="E180" s="9"/>
+      <c r="A180" s="6"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="8"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="E181" s="9"/>
+      <c r="A181" s="6"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="E181" s="7"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="8"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="E182" s="9"/>
+      <c r="A182" s="6"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="E182" s="7"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="8"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="E183" s="9"/>
+      <c r="A183" s="6"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="E183" s="7"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="8"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="E184" s="9"/>
+      <c r="A184" s="6"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="E184" s="7"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="8"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="E185" s="9"/>
+      <c r="A185" s="6"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="E185" s="7"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="8"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="E186" s="9"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="E186" s="7"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="8"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="E187" s="9"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="E187" s="7"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="8"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="E188" s="9"/>
+      <c r="A188" s="6"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="E188" s="7"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="8"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="E189" s="9"/>
+      <c r="A189" s="6"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="E189" s="7"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="8"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="E190" s="9"/>
+      <c r="A190" s="6"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="E190" s="7"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="8"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="E191" s="9"/>
+      <c r="A191" s="6"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="E191" s="7"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="8"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="E192" s="9"/>
+      <c r="A192" s="6"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="E192" s="7"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="8"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="E193" s="9"/>
+      <c r="A193" s="6"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="E193" s="7"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="8"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
-      <c r="E194" s="9"/>
+      <c r="A194" s="6"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="E194" s="7"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="8"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="E195" s="9"/>
+      <c r="A195" s="6"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="E195" s="7"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="8"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
-      <c r="E196" s="9"/>
+      <c r="A196" s="6"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="E196" s="7"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="8"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-      <c r="E197" s="9"/>
+      <c r="A197" s="6"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="E197" s="7"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="8"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="E198" s="9"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="E198" s="7"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="8"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="E199" s="9"/>
+      <c r="A199" s="6"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="E199" s="7"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="8"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
-      <c r="E200" s="9"/>
+      <c r="A200" s="6"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="E200" s="7"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="8"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
-      <c r="E201" s="9"/>
+      <c r="A201" s="6"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="E201" s="7"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="8"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
-      <c r="E202" s="9"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
+      <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="8"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
-      <c r="E203" s="9"/>
+      <c r="A203" s="6"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="E203" s="7"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="8"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="E204" s="9"/>
+      <c r="A204" s="6"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="E204" s="7"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="8"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="E205" s="9"/>
+      <c r="A205" s="6"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="E205" s="7"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="8"/>
-      <c r="B206" s="9"/>
-      <c r="C206" s="9"/>
-      <c r="E206" s="9"/>
+      <c r="A206" s="6"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="E206" s="7"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="8"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
-      <c r="E207" s="9"/>
+      <c r="A207" s="6"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="E207" s="7"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="8"/>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
-      <c r="E208" s="9"/>
+      <c r="A208" s="6"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="E208" s="7"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="8"/>
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
-      <c r="E209" s="9"/>
+      <c r="A209" s="6"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
+      <c r="E209" s="7"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="8"/>
-      <c r="B210" s="9"/>
-      <c r="C210" s="9"/>
-      <c r="E210" s="9"/>
+      <c r="A210" s="6"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="E210" s="7"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="8"/>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
-      <c r="E211" s="9"/>
+      <c r="A211" s="6"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="E211" s="7"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="8"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
-      <c r="E212" s="9"/>
+      <c r="A212" s="6"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
+      <c r="E212" s="7"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="8"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
-      <c r="E213" s="9"/>
+      <c r="A213" s="6"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
+      <c r="E213" s="7"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="8"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
-      <c r="E214" s="9"/>
+      <c r="A214" s="6"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="8"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
-      <c r="E215" s="9"/>
+      <c r="A215" s="6"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="E215" s="7"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="8"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="E216" s="9"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="E216" s="7"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="8"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
-      <c r="E217" s="9"/>
+      <c r="A217" s="6"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="E217" s="7"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="8"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
-      <c r="E218" s="9"/>
+      <c r="A218" s="6"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="E218" s="7"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="8"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
-      <c r="E219" s="9"/>
+      <c r="A219" s="6"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="7"/>
+      <c r="E219" s="7"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="8"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="E220" s="9"/>
+      <c r="A220" s="6"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
+      <c r="E220" s="7"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="8"/>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
-      <c r="E221" s="9"/>
+      <c r="A221" s="6"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7"/>
+      <c r="E221" s="7"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="8"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
-      <c r="E222" s="9"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
+      <c r="E222" s="7"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="8"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
-      <c r="E223" s="9"/>
+      <c r="A223" s="6"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="7"/>
+      <c r="E223" s="7"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="8"/>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9"/>
-      <c r="E224" s="9"/>
+      <c r="A224" s="6"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="7"/>
+      <c r="E224" s="7"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="8"/>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9"/>
-      <c r="E225" s="9"/>
+      <c r="A225" s="6"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="7"/>
+      <c r="E225" s="7"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="8"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="9"/>
-      <c r="E226" s="9"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="7"/>
+      <c r="E226" s="7"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="8"/>
-      <c r="B227" s="9"/>
-      <c r="C227" s="9"/>
-      <c r="E227" s="9"/>
+      <c r="A227" s="6"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="7"/>
+      <c r="E227" s="7"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="8"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="9"/>
-      <c r="E228" s="9"/>
+      <c r="A228" s="6"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
+      <c r="E228" s="7"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="8"/>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
-      <c r="E229" s="9"/>
+      <c r="A229" s="6"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="7"/>
+      <c r="E229" s="7"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="8"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
-      <c r="E230" s="9"/>
+      <c r="A230" s="6"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="7"/>
+      <c r="E230" s="7"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="8"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="E231" s="9"/>
+      <c r="A231" s="6"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="7"/>
+      <c r="E231" s="7"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="8"/>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
-      <c r="E232" s="9"/>
+      <c r="A232" s="6"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="7"/>
+      <c r="E232" s="7"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="8"/>
-      <c r="B233" s="9"/>
-      <c r="C233" s="9"/>
-      <c r="E233" s="9"/>
+      <c r="A233" s="6"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="7"/>
+      <c r="E233" s="7"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="8"/>
-      <c r="B234" s="9"/>
-      <c r="C234" s="9"/>
-      <c r="E234" s="9"/>
+      <c r="A234" s="6"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="7"/>
+      <c r="E234" s="7"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="8"/>
-      <c r="B235" s="9"/>
-      <c r="C235" s="9"/>
-      <c r="E235" s="9"/>
+      <c r="A235" s="6"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="7"/>
+      <c r="E235" s="7"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="8"/>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
-      <c r="E236" s="9"/>
+      <c r="A236" s="6"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="7"/>
+      <c r="E236" s="7"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="8"/>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
-      <c r="E237" s="9"/>
+      <c r="A237" s="6"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="7"/>
+      <c r="E237" s="7"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="8"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="E238" s="9"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
+      <c r="E238" s="7"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="8"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="9"/>
-      <c r="E239" s="9"/>
+      <c r="A239" s="6"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
+      <c r="E239" s="7"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="8"/>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9"/>
-      <c r="E240" s="9"/>
+      <c r="A240" s="6"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="7"/>
+      <c r="E240" s="7"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="8"/>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9"/>
-      <c r="E241" s="9"/>
+      <c r="A241" s="6"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="7"/>
+      <c r="E241" s="7"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="8"/>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
-      <c r="E242" s="9"/>
+      <c r="A242" s="6"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
+      <c r="E242" s="7"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="8"/>
-      <c r="B243" s="9"/>
-      <c r="C243" s="9"/>
-      <c r="E243" s="9"/>
+      <c r="A243" s="6"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="7"/>
+      <c r="E243" s="7"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="8"/>
-      <c r="B244" s="9"/>
-      <c r="C244" s="9"/>
-      <c r="E244" s="9"/>
+      <c r="A244" s="6"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="7"/>
+      <c r="E244" s="7"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="8"/>
-      <c r="B245" s="9"/>
-      <c r="C245" s="9"/>
-      <c r="E245" s="9"/>
+      <c r="A245" s="6"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
+      <c r="E245" s="7"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="8"/>
-      <c r="B246" s="9"/>
-      <c r="C246" s="9"/>
-      <c r="E246" s="9"/>
+      <c r="A246" s="6"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="7"/>
+      <c r="E246" s="7"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="8"/>
-      <c r="B247" s="9"/>
-      <c r="C247" s="9"/>
-      <c r="E247" s="9"/>
+      <c r="A247" s="6"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
+      <c r="E247" s="7"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="8"/>
-      <c r="B248" s="9"/>
-      <c r="C248" s="9"/>
-      <c r="E248" s="9"/>
+      <c r="A248" s="6"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
+      <c r="E248" s="7"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="8"/>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
-      <c r="E249" s="9"/>
+      <c r="A249" s="6"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="7"/>
+      <c r="E249" s="7"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="8"/>
-      <c r="B250" s="9"/>
-      <c r="C250" s="9"/>
-      <c r="E250" s="9"/>
+      <c r="A250" s="6"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="7"/>
+      <c r="E250" s="7"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="8"/>
-      <c r="B251" s="9"/>
-      <c r="C251" s="9"/>
-      <c r="E251" s="9"/>
+      <c r="A251" s="6"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="E251" s="7"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="8"/>
-      <c r="B252" s="9"/>
-      <c r="C252" s="9"/>
-      <c r="E252" s="9"/>
+      <c r="A252" s="6"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="7"/>
+      <c r="E252" s="7"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="8"/>
-      <c r="B253" s="9"/>
-      <c r="C253" s="9"/>
-      <c r="E253" s="9"/>
+      <c r="A253" s="6"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="7"/>
+      <c r="E253" s="7"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="8"/>
-      <c r="B254" s="9"/>
-      <c r="C254" s="9"/>
-      <c r="E254" s="9"/>
+      <c r="A254" s="6"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="7"/>
+      <c r="E254" s="7"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="8"/>
-      <c r="B255" s="9"/>
-      <c r="C255" s="9"/>
-      <c r="E255" s="9"/>
+      <c r="A255" s="6"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
+      <c r="E255" s="7"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="8"/>
-      <c r="B256" s="9"/>
-      <c r="C256" s="9"/>
-      <c r="E256" s="9"/>
+      <c r="A256" s="6"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7"/>
+      <c r="E256" s="7"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="8"/>
-      <c r="B257" s="9"/>
-      <c r="C257" s="9"/>
-      <c r="E257" s="9"/>
+      <c r="A257" s="6"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
+      <c r="E257" s="7"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="8"/>
-      <c r="B258" s="9"/>
-      <c r="C258" s="9"/>
-      <c r="E258" s="9"/>
+      <c r="A258" s="6"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="7"/>
+      <c r="E258" s="7"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="8"/>
-      <c r="B259" s="9"/>
-      <c r="C259" s="9"/>
-      <c r="E259" s="9"/>
+      <c r="A259" s="6"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="7"/>
+      <c r="E259" s="7"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="8"/>
-      <c r="B260" s="9"/>
-      <c r="C260" s="9"/>
-      <c r="E260" s="9"/>
+      <c r="A260" s="6"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="7"/>
+      <c r="E260" s="7"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="8"/>
-      <c r="B261" s="9"/>
-      <c r="C261" s="9"/>
-      <c r="E261" s="9"/>
+      <c r="A261" s="6"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="7"/>
+      <c r="E261" s="7"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="8"/>
-      <c r="B262" s="9"/>
-      <c r="C262" s="9"/>
-      <c r="E262" s="9"/>
+      <c r="A262" s="6"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="7"/>
+      <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="8"/>
-      <c r="B263" s="9"/>
-      <c r="C263" s="9"/>
-      <c r="E263" s="9"/>
+      <c r="A263" s="6"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="7"/>
+      <c r="E263" s="7"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="8"/>
-      <c r="B264" s="9"/>
-      <c r="C264" s="9"/>
-      <c r="E264" s="9"/>
+      <c r="A264" s="6"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="7"/>
+      <c r="E264" s="7"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="8"/>
-      <c r="B265" s="9"/>
-      <c r="C265" s="9"/>
-      <c r="E265" s="9"/>
+      <c r="A265" s="6"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="7"/>
+      <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="8"/>
-      <c r="B266" s="9"/>
-      <c r="C266" s="9"/>
-      <c r="E266" s="9"/>
+      <c r="A266" s="6"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="7"/>
+      <c r="E266" s="7"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="8"/>
-      <c r="B267" s="9"/>
-      <c r="C267" s="9"/>
-      <c r="E267" s="9"/>
+      <c r="A267" s="6"/>
+      <c r="B267" s="7"/>
+      <c r="C267" s="7"/>
+      <c r="E267" s="7"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="8"/>
-      <c r="B268" s="9"/>
-      <c r="C268" s="9"/>
-      <c r="E268" s="9"/>
+      <c r="A268" s="6"/>
+      <c r="B268" s="7"/>
+      <c r="C268" s="7"/>
+      <c r="E268" s="7"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="8"/>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
-      <c r="E269" s="9"/>
+      <c r="A269" s="6"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="7"/>
+      <c r="E269" s="7"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="8"/>
-      <c r="B270" s="9"/>
-      <c r="C270" s="9"/>
-      <c r="E270" s="9"/>
+      <c r="A270" s="6"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="7"/>
+      <c r="E270" s="7"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="8"/>
-      <c r="B271" s="9"/>
-      <c r="C271" s="9"/>
-      <c r="E271" s="9"/>
+      <c r="A271" s="6"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="7"/>
+      <c r="E271" s="7"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="8"/>
-      <c r="B272" s="9"/>
-      <c r="C272" s="9"/>
-      <c r="E272" s="9"/>
+      <c r="A272" s="6"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="7"/>
+      <c r="E272" s="7"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="8"/>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9"/>
-      <c r="E273" s="9"/>
+      <c r="A273" s="6"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="7"/>
+      <c r="E273" s="7"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="8"/>
-      <c r="B274" s="9"/>
-      <c r="C274" s="9"/>
-      <c r="E274" s="9"/>
+      <c r="A274" s="6"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="7"/>
+      <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="8"/>
-      <c r="B275" s="9"/>
-      <c r="C275" s="9"/>
-      <c r="E275" s="9"/>
+      <c r="A275" s="6"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="7"/>
+      <c r="E275" s="7"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="8"/>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9"/>
-      <c r="E276" s="9"/>
+      <c r="A276" s="6"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="7"/>
+      <c r="E276" s="7"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="8"/>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
-      <c r="E277" s="9"/>
+      <c r="A277" s="6"/>
+      <c r="B277" s="7"/>
+      <c r="C277" s="7"/>
+      <c r="E277" s="7"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="8"/>
-      <c r="B278" s="9"/>
-      <c r="C278" s="9"/>
-      <c r="E278" s="9"/>
+      <c r="A278" s="6"/>
+      <c r="B278" s="7"/>
+      <c r="C278" s="7"/>
+      <c r="E278" s="7"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="8"/>
-      <c r="B279" s="9"/>
-      <c r="C279" s="9"/>
-      <c r="E279" s="9"/>
+      <c r="A279" s="6"/>
+      <c r="B279" s="7"/>
+      <c r="C279" s="7"/>
+      <c r="E279" s="7"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="8"/>
-      <c r="B280" s="9"/>
-      <c r="C280" s="9"/>
-      <c r="E280" s="9"/>
+      <c r="A280" s="6"/>
+      <c r="B280" s="7"/>
+      <c r="C280" s="7"/>
+      <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="8"/>
-      <c r="B281" s="9"/>
-      <c r="C281" s="9"/>
-      <c r="E281" s="9"/>
+      <c r="A281" s="6"/>
+      <c r="B281" s="7"/>
+      <c r="C281" s="7"/>
+      <c r="E281" s="7"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="8"/>
-      <c r="B282" s="9"/>
-      <c r="C282" s="9"/>
-      <c r="E282" s="9"/>
+      <c r="A282" s="6"/>
+      <c r="B282" s="7"/>
+      <c r="C282" s="7"/>
+      <c r="E282" s="7"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="8"/>
-      <c r="B283" s="9"/>
-      <c r="C283" s="9"/>
-      <c r="E283" s="9"/>
+      <c r="A283" s="6"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="7"/>
+      <c r="E283" s="7"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="8"/>
-      <c r="B284" s="9"/>
-      <c r="C284" s="9"/>
-      <c r="E284" s="9"/>
+      <c r="A284" s="6"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="7"/>
+      <c r="E284" s="7"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="8"/>
-      <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
-      <c r="E285" s="9"/>
+      <c r="A285" s="6"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="7"/>
+      <c r="E285" s="7"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="8"/>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9"/>
-      <c r="E286" s="9"/>
+      <c r="A286" s="6"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="7"/>
+      <c r="E286" s="7"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="8"/>
-      <c r="B287" s="9"/>
-      <c r="C287" s="9"/>
-      <c r="E287" s="9"/>
+      <c r="A287" s="6"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
+      <c r="E287" s="7"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="8"/>
-      <c r="B288" s="9"/>
-      <c r="C288" s="9"/>
-      <c r="E288" s="9"/>
+      <c r="A288" s="6"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="7"/>
+      <c r="E288" s="7"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="8"/>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9"/>
-      <c r="E289" s="9"/>
+      <c r="A289" s="6"/>
+      <c r="B289" s="7"/>
+      <c r="C289" s="7"/>
+      <c r="E289" s="7"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="8"/>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
-      <c r="E290" s="9"/>
+      <c r="A290" s="6"/>
+      <c r="B290" s="7"/>
+      <c r="C290" s="7"/>
+      <c r="E290" s="7"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="8"/>
-      <c r="B291" s="9"/>
-      <c r="C291" s="9"/>
-      <c r="E291" s="9"/>
+      <c r="A291" s="6"/>
+      <c r="B291" s="7"/>
+      <c r="C291" s="7"/>
+      <c r="E291" s="7"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="8"/>
-      <c r="B292" s="9"/>
-      <c r="C292" s="9"/>
-      <c r="E292" s="9"/>
+      <c r="A292" s="6"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
+      <c r="E292" s="7"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="8"/>
-      <c r="B293" s="9"/>
-      <c r="C293" s="9"/>
-      <c r="E293" s="9"/>
+      <c r="A293" s="6"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="7"/>
+      <c r="E293" s="7"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="8"/>
-      <c r="B294" s="9"/>
-      <c r="C294" s="9"/>
-      <c r="E294" s="9"/>
+      <c r="A294" s="6"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="7"/>
+      <c r="E294" s="7"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="8"/>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
-      <c r="E295" s="9"/>
+      <c r="A295" s="6"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="7"/>
+      <c r="E295" s="7"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="8"/>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9"/>
-      <c r="E296" s="9"/>
+      <c r="A296" s="6"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="7"/>
+      <c r="E296" s="7"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="8"/>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9"/>
-      <c r="E297" s="9"/>
+      <c r="A297" s="6"/>
+      <c r="B297" s="7"/>
+      <c r="C297" s="7"/>
+      <c r="E297" s="7"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="8"/>
-      <c r="B298" s="9"/>
-      <c r="C298" s="9"/>
-      <c r="E298" s="9"/>
+      <c r="A298" s="6"/>
+      <c r="B298" s="7"/>
+      <c r="C298" s="7"/>
+      <c r="E298" s="7"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="8"/>
-      <c r="B299" s="9"/>
-      <c r="C299" s="9"/>
-      <c r="E299" s="9"/>
+      <c r="A299" s="6"/>
+      <c r="B299" s="7"/>
+      <c r="C299" s="7"/>
+      <c r="E299" s="7"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="8"/>
-      <c r="B300" s="9"/>
-      <c r="C300" s="9"/>
-      <c r="E300" s="9"/>
+      <c r="A300" s="6"/>
+      <c r="B300" s="7"/>
+      <c r="C300" s="7"/>
+      <c r="E300" s="7"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="8"/>
-      <c r="B301" s="9"/>
-      <c r="C301" s="9"/>
-      <c r="E301" s="9"/>
+      <c r="A301" s="6"/>
+      <c r="B301" s="7"/>
+      <c r="C301" s="7"/>
+      <c r="E301" s="7"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="8"/>
-      <c r="B302" s="9"/>
-      <c r="C302" s="9"/>
-      <c r="E302" s="9"/>
+      <c r="A302" s="6"/>
+      <c r="B302" s="7"/>
+      <c r="C302" s="7"/>
+      <c r="E302" s="7"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="8"/>
-      <c r="B303" s="9"/>
-      <c r="C303" s="9"/>
-      <c r="E303" s="9"/>
+      <c r="A303" s="6"/>
+      <c r="B303" s="7"/>
+      <c r="C303" s="7"/>
+      <c r="E303" s="7"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="8"/>
-      <c r="B304" s="9"/>
-      <c r="C304" s="9"/>
-      <c r="E304" s="9"/>
+      <c r="A304" s="6"/>
+      <c r="B304" s="7"/>
+      <c r="C304" s="7"/>
+      <c r="E304" s="7"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="8"/>
-      <c r="B305" s="9"/>
-      <c r="C305" s="9"/>
-      <c r="E305" s="9"/>
+      <c r="A305" s="6"/>
+      <c r="B305" s="7"/>
+      <c r="C305" s="7"/>
+      <c r="E305" s="7"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="8"/>
-      <c r="B306" s="9"/>
-      <c r="C306" s="9"/>
-      <c r="E306" s="9"/>
+      <c r="A306" s="6"/>
+      <c r="B306" s="7"/>
+      <c r="C306" s="7"/>
+      <c r="E306" s="7"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="8"/>
-      <c r="B307" s="9"/>
-      <c r="C307" s="9"/>
-      <c r="E307" s="9"/>
+      <c r="A307" s="6"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="7"/>
+      <c r="E307" s="7"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="8"/>
-      <c r="B308" s="9"/>
-      <c r="C308" s="9"/>
-      <c r="E308" s="9"/>
+      <c r="A308" s="6"/>
+      <c r="B308" s="7"/>
+      <c r="C308" s="7"/>
+      <c r="E308" s="7"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="8"/>
-      <c r="B309" s="9"/>
-      <c r="C309" s="9"/>
-      <c r="E309" s="9"/>
+      <c r="A309" s="6"/>
+      <c r="B309" s="7"/>
+      <c r="C309" s="7"/>
+      <c r="E309" s="7"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="8"/>
-      <c r="B310" s="9"/>
-      <c r="C310" s="9"/>
-      <c r="E310" s="9"/>
+      <c r="A310" s="6"/>
+      <c r="B310" s="7"/>
+      <c r="C310" s="7"/>
+      <c r="E310" s="7"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="8"/>
-      <c r="B311" s="9"/>
-      <c r="C311" s="9"/>
-      <c r="E311" s="9"/>
+      <c r="A311" s="6"/>
+      <c r="B311" s="7"/>
+      <c r="C311" s="7"/>
+      <c r="E311" s="7"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="8"/>
-      <c r="B312" s="9"/>
-      <c r="C312" s="9"/>
-      <c r="E312" s="9"/>
+      <c r="A312" s="6"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="7"/>
+      <c r="E312" s="7"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="8"/>
-      <c r="B313" s="9"/>
-      <c r="C313" s="9"/>
-      <c r="E313" s="9"/>
+      <c r="A313" s="6"/>
+      <c r="B313" s="7"/>
+      <c r="C313" s="7"/>
+      <c r="E313" s="7"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="8"/>
-      <c r="B314" s="9"/>
-      <c r="C314" s="9"/>
-      <c r="E314" s="9"/>
+      <c r="A314" s="6"/>
+      <c r="B314" s="7"/>
+      <c r="C314" s="7"/>
+      <c r="E314" s="7"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" s="8"/>
-      <c r="B315" s="9"/>
-      <c r="C315" s="9"/>
-      <c r="E315" s="9"/>
+      <c r="A315" s="6"/>
+      <c r="B315" s="7"/>
+      <c r="C315" s="7"/>
+      <c r="E315" s="7"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="8"/>
-      <c r="B316" s="9"/>
-      <c r="C316" s="9"/>
-      <c r="E316" s="9"/>
+      <c r="A316" s="6"/>
+      <c r="B316" s="7"/>
+      <c r="C316" s="7"/>
+      <c r="E316" s="7"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="8"/>
-      <c r="B317" s="9"/>
-      <c r="C317" s="9"/>
-      <c r="E317" s="9"/>
+      <c r="A317" s="6"/>
+      <c r="B317" s="7"/>
+      <c r="C317" s="7"/>
+      <c r="E317" s="7"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="8"/>
-      <c r="B318" s="9"/>
-      <c r="C318" s="9"/>
-      <c r="E318" s="9"/>
+      <c r="A318" s="6"/>
+      <c r="B318" s="7"/>
+      <c r="C318" s="7"/>
+      <c r="E318" s="7"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="8"/>
-      <c r="B319" s="9"/>
-      <c r="C319" s="9"/>
-      <c r="E319" s="9"/>
+      <c r="A319" s="6"/>
+      <c r="B319" s="7"/>
+      <c r="C319" s="7"/>
+      <c r="E319" s="7"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="8"/>
-      <c r="B320" s="9"/>
-      <c r="C320" s="9"/>
-      <c r="E320" s="9"/>
+      <c r="A320" s="6"/>
+      <c r="B320" s="7"/>
+      <c r="C320" s="7"/>
+      <c r="E320" s="7"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="8"/>
-      <c r="B321" s="9"/>
-      <c r="C321" s="9"/>
-      <c r="E321" s="9"/>
+      <c r="A321" s="6"/>
+      <c r="B321" s="7"/>
+      <c r="C321" s="7"/>
+      <c r="E321" s="7"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="8"/>
-      <c r="B322" s="9"/>
-      <c r="C322" s="9"/>
-      <c r="E322" s="9"/>
+      <c r="A322" s="6"/>
+      <c r="B322" s="7"/>
+      <c r="C322" s="7"/>
+      <c r="E322" s="7"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="8"/>
-      <c r="B323" s="9"/>
-      <c r="C323" s="9"/>
-      <c r="E323" s="9"/>
+      <c r="A323" s="6"/>
+      <c r="B323" s="7"/>
+      <c r="C323" s="7"/>
+      <c r="E323" s="7"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="8"/>
-      <c r="B324" s="9"/>
-      <c r="C324" s="9"/>
-      <c r="E324" s="9"/>
+      <c r="A324" s="6"/>
+      <c r="B324" s="7"/>
+      <c r="C324" s="7"/>
+      <c r="E324" s="7"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="8"/>
-      <c r="B325" s="9"/>
-      <c r="C325" s="9"/>
-      <c r="E325" s="9"/>
+      <c r="A325" s="6"/>
+      <c r="B325" s="7"/>
+      <c r="C325" s="7"/>
+      <c r="E325" s="7"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="8"/>
-      <c r="B326" s="9"/>
-      <c r="C326" s="9"/>
-      <c r="E326" s="9"/>
+      <c r="A326" s="6"/>
+      <c r="B326" s="7"/>
+      <c r="C326" s="7"/>
+      <c r="E326" s="7"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="8"/>
-      <c r="B327" s="9"/>
-      <c r="C327" s="9"/>
-      <c r="E327" s="9"/>
+      <c r="A327" s="6"/>
+      <c r="B327" s="7"/>
+      <c r="C327" s="7"/>
+      <c r="E327" s="7"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="8"/>
-      <c r="B328" s="9"/>
-      <c r="C328" s="9"/>
-      <c r="E328" s="9"/>
+      <c r="A328" s="6"/>
+      <c r="B328" s="7"/>
+      <c r="C328" s="7"/>
+      <c r="E328" s="7"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="8"/>
-      <c r="B329" s="9"/>
-      <c r="C329" s="9"/>
-      <c r="E329" s="9"/>
+      <c r="A329" s="6"/>
+      <c r="B329" s="7"/>
+      <c r="C329" s="7"/>
+      <c r="E329" s="7"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="8"/>
-      <c r="B330" s="9"/>
-      <c r="C330" s="9"/>
-      <c r="E330" s="9"/>
+      <c r="A330" s="6"/>
+      <c r="B330" s="7"/>
+      <c r="C330" s="7"/>
+      <c r="E330" s="7"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="8"/>
-      <c r="B331" s="9"/>
-      <c r="C331" s="9"/>
-      <c r="E331" s="9"/>
+      <c r="A331" s="6"/>
+      <c r="B331" s="7"/>
+      <c r="C331" s="7"/>
+      <c r="E331" s="7"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="8"/>
-      <c r="B332" s="9"/>
-      <c r="C332" s="9"/>
-      <c r="E332" s="9"/>
+      <c r="A332" s="6"/>
+      <c r="B332" s="7"/>
+      <c r="C332" s="7"/>
+      <c r="E332" s="7"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="8"/>
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
-      <c r="E333" s="9"/>
+      <c r="A333" s="6"/>
+      <c r="B333" s="7"/>
+      <c r="C333" s="7"/>
+      <c r="E333" s="7"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="8"/>
-      <c r="B334" s="9"/>
-      <c r="C334" s="9"/>
-      <c r="E334" s="9"/>
+      <c r="A334" s="6"/>
+      <c r="B334" s="7"/>
+      <c r="C334" s="7"/>
+      <c r="E334" s="7"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="8"/>
-      <c r="B335" s="9"/>
-      <c r="C335" s="9"/>
-      <c r="E335" s="9"/>
+      <c r="A335" s="6"/>
+      <c r="B335" s="7"/>
+      <c r="C335" s="7"/>
+      <c r="E335" s="7"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="8"/>
-      <c r="B336" s="9"/>
-      <c r="C336" s="9"/>
-      <c r="E336" s="9"/>
+      <c r="A336" s="6"/>
+      <c r="B336" s="7"/>
+      <c r="C336" s="7"/>
+      <c r="E336" s="7"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="8"/>
-      <c r="B337" s="9"/>
-      <c r="C337" s="9"/>
-      <c r="E337" s="9"/>
+      <c r="A337" s="6"/>
+      <c r="B337" s="7"/>
+      <c r="C337" s="7"/>
+      <c r="E337" s="7"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="8"/>
-      <c r="B338" s="9"/>
-      <c r="C338" s="9"/>
-      <c r="E338" s="9"/>
+      <c r="A338" s="6"/>
+      <c r="B338" s="7"/>
+      <c r="C338" s="7"/>
+      <c r="E338" s="7"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="8"/>
-      <c r="B339" s="9"/>
-      <c r="C339" s="9"/>
-      <c r="E339" s="9"/>
+      <c r="A339" s="6"/>
+      <c r="B339" s="7"/>
+      <c r="C339" s="7"/>
+      <c r="E339" s="7"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="8"/>
-      <c r="B340" s="9"/>
-      <c r="C340" s="9"/>
-      <c r="E340" s="9"/>
+      <c r="A340" s="6"/>
+      <c r="B340" s="7"/>
+      <c r="C340" s="7"/>
+      <c r="E340" s="7"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="8"/>
-      <c r="B341" s="9"/>
-      <c r="C341" s="9"/>
-      <c r="E341" s="9"/>
+      <c r="A341" s="6"/>
+      <c r="B341" s="7"/>
+      <c r="C341" s="7"/>
+      <c r="E341" s="7"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="8"/>
-      <c r="B342" s="9"/>
-      <c r="C342" s="9"/>
-      <c r="E342" s="9"/>
+      <c r="A342" s="6"/>
+      <c r="B342" s="7"/>
+      <c r="C342" s="7"/>
+      <c r="E342" s="7"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="8"/>
-      <c r="B343" s="9"/>
-      <c r="C343" s="9"/>
-      <c r="E343" s="9"/>
+      <c r="A343" s="6"/>
+      <c r="B343" s="7"/>
+      <c r="C343" s="7"/>
+      <c r="E343" s="7"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="8"/>
-      <c r="B344" s="9"/>
-      <c r="C344" s="9"/>
-      <c r="E344" s="9"/>
+      <c r="A344" s="6"/>
+      <c r="B344" s="7"/>
+      <c r="C344" s="7"/>
+      <c r="E344" s="7"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="8"/>
-      <c r="B345" s="9"/>
-      <c r="C345" s="9"/>
-      <c r="E345" s="9"/>
+      <c r="A345" s="6"/>
+      <c r="B345" s="7"/>
+      <c r="C345" s="7"/>
+      <c r="E345" s="7"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="8"/>
-      <c r="B346" s="9"/>
-      <c r="C346" s="9"/>
-      <c r="E346" s="9"/>
+      <c r="A346" s="6"/>
+      <c r="B346" s="7"/>
+      <c r="C346" s="7"/>
+      <c r="E346" s="7"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="8"/>
-      <c r="B347" s="9"/>
-      <c r="C347" s="9"/>
-      <c r="E347" s="9"/>
+      <c r="A347" s="6"/>
+      <c r="B347" s="7"/>
+      <c r="C347" s="7"/>
+      <c r="E347" s="7"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="8"/>
-      <c r="B348" s="9"/>
-      <c r="C348" s="9"/>
-      <c r="E348" s="9"/>
+      <c r="A348" s="6"/>
+      <c r="B348" s="7"/>
+      <c r="C348" s="7"/>
+      <c r="E348" s="7"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="8"/>
-      <c r="B349" s="9"/>
-      <c r="C349" s="9"/>
-      <c r="E349" s="9"/>
+      <c r="A349" s="6"/>
+      <c r="B349" s="7"/>
+      <c r="C349" s="7"/>
+      <c r="E349" s="7"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="8"/>
-      <c r="B350" s="9"/>
-      <c r="C350" s="9"/>
+      <c r="A350" s="6"/>
+      <c r="B350" s="7"/>
+      <c r="C350" s="7"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="8"/>
-      <c r="B351" s="9"/>
-      <c r="C351" s="9"/>
+      <c r="A351" s="6"/>
+      <c r="B351" s="7"/>
+      <c r="C351" s="7"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="8"/>
-      <c r="B352" s="9"/>
-      <c r="C352" s="9"/>
+      <c r="A352" s="6"/>
+      <c r="B352" s="7"/>
+      <c r="C352" s="7"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="8"/>
-      <c r="B353" s="9"/>
-      <c r="C353" s="9"/>
+      <c r="A353" s="6"/>
+      <c r="B353" s="7"/>
+      <c r="C353" s="7"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="8"/>
-      <c r="B354" s="9"/>
-      <c r="C354" s="9"/>
+      <c r="A354" s="6"/>
+      <c r="B354" s="7"/>
+      <c r="C354" s="7"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="8"/>
-      <c r="B355" s="9"/>
-      <c r="C355" s="9"/>
+      <c r="A355" s="6"/>
+      <c r="B355" s="7"/>
+      <c r="C355" s="7"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="8"/>
-      <c r="B356" s="9"/>
-      <c r="C356" s="9"/>
+      <c r="A356" s="6"/>
+      <c r="B356" s="7"/>
+      <c r="C356" s="7"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="8"/>
-      <c r="B357" s="9"/>
-      <c r="C357" s="9"/>
+      <c r="A357" s="6"/>
+      <c r="B357" s="7"/>
+      <c r="C357" s="7"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="8"/>
-      <c r="B358" s="9"/>
-      <c r="C358" s="9"/>
+      <c r="A358" s="6"/>
+      <c r="B358" s="7"/>
+      <c r="C358" s="7"/>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="8"/>
-      <c r="B359" s="9"/>
-      <c r="C359" s="9"/>
+      <c r="A359" s="6"/>
+      <c r="B359" s="7"/>
+      <c r="C359" s="7"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="8"/>
-      <c r="B360" s="9"/>
-      <c r="C360" s="9"/>
+      <c r="A360" s="6"/>
+      <c r="B360" s="7"/>
+      <c r="C360" s="7"/>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="8"/>
-      <c r="B361" s="9"/>
-      <c r="C361" s="9"/>
+      <c r="A361" s="6"/>
+      <c r="B361" s="7"/>
+      <c r="C361" s="7"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="8"/>
-      <c r="B362" s="9"/>
-      <c r="C362" s="9"/>
+      <c r="A362" s="6"/>
+      <c r="B362" s="7"/>
+      <c r="C362" s="7"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="8"/>
-      <c r="B363" s="9"/>
-      <c r="C363" s="9"/>
+      <c r="A363" s="6"/>
+      <c r="B363" s="7"/>
+      <c r="C363" s="7"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="8"/>
-      <c r="B364" s="9"/>
-      <c r="C364" s="9"/>
+      <c r="A364" s="6"/>
+      <c r="B364" s="7"/>
+      <c r="C364" s="7"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="8"/>
-      <c r="B365" s="9"/>
-      <c r="C365" s="9"/>
+      <c r="A365" s="6"/>
+      <c r="B365" s="7"/>
+      <c r="C365" s="7"/>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="8"/>
-      <c r="B366" s="9"/>
-      <c r="C366" s="9"/>
+      <c r="A366" s="6"/>
+      <c r="B366" s="7"/>
+      <c r="C366" s="7"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="8"/>
-      <c r="B367" s="9"/>
-      <c r="C367" s="9"/>
+      <c r="A367" s="6"/>
+      <c r="B367" s="7"/>
+      <c r="C367" s="7"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="8"/>
-      <c r="B368" s="9"/>
-      <c r="C368" s="9"/>
+      <c r="A368" s="6"/>
+      <c r="B368" s="7"/>
+      <c r="C368" s="7"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="8"/>
-      <c r="B369" s="9"/>
-      <c r="C369" s="9"/>
+      <c r="A369" s="6"/>
+      <c r="B369" s="7"/>
+      <c r="C369" s="7"/>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="8"/>
-      <c r="B370" s="9"/>
-      <c r="C370" s="9"/>
+      <c r="A370" s="6"/>
+      <c r="B370" s="7"/>
+      <c r="C370" s="7"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="8"/>
-      <c r="B371" s="9"/>
-      <c r="C371" s="9"/>
+      <c r="A371" s="6"/>
+      <c r="B371" s="7"/>
+      <c r="C371" s="7"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="8"/>
-      <c r="B372" s="9"/>
-      <c r="C372" s="9"/>
+      <c r="A372" s="6"/>
+      <c r="B372" s="7"/>
+      <c r="C372" s="7"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="8"/>
-      <c r="B373" s="9"/>
-      <c r="C373" s="9"/>
+      <c r="A373" s="6"/>
+      <c r="B373" s="7"/>
+      <c r="C373" s="7"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="8"/>
-      <c r="B374" s="9"/>
-      <c r="C374" s="9"/>
+      <c r="A374" s="6"/>
+      <c r="B374" s="7"/>
+      <c r="C374" s="7"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="8"/>
-      <c r="B375" s="9"/>
-      <c r="C375" s="9"/>
+      <c r="A375" s="6"/>
+      <c r="B375" s="7"/>
+      <c r="C375" s="7"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="8"/>
-      <c r="B376" s="9"/>
-      <c r="C376" s="9"/>
+      <c r="A376" s="6"/>
+      <c r="B376" s="7"/>
+      <c r="C376" s="7"/>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="8"/>
-      <c r="B377" s="9"/>
-      <c r="C377" s="9"/>
+      <c r="A377" s="6"/>
+      <c r="B377" s="7"/>
+      <c r="C377" s="7"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="8"/>
-      <c r="B378" s="9"/>
-      <c r="C378" s="9"/>
+      <c r="A378" s="6"/>
+      <c r="B378" s="7"/>
+      <c r="C378" s="7"/>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="8"/>
-      <c r="B379" s="9"/>
-      <c r="C379" s="9"/>
+      <c r="A379" s="6"/>
+      <c r="B379" s="7"/>
+      <c r="C379" s="7"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="8"/>
-      <c r="B380" s="9"/>
-      <c r="C380" s="9"/>
+      <c r="A380" s="6"/>
+      <c r="B380" s="7"/>
+      <c r="C380" s="7"/>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="8"/>
-      <c r="B381" s="9"/>
-      <c r="C381" s="9"/>
+      <c r="A381" s="6"/>
+      <c r="B381" s="7"/>
+      <c r="C381" s="7"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="8"/>
-      <c r="B382" s="9"/>
-      <c r="C382" s="9"/>
+      <c r="A382" s="6"/>
+      <c r="B382" s="7"/>
+      <c r="C382" s="7"/>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="8"/>
-      <c r="B383" s="9"/>
-      <c r="C383" s="9"/>
+      <c r="A383" s="6"/>
+      <c r="B383" s="7"/>
+      <c r="C383" s="7"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="8"/>
-      <c r="B384" s="9"/>
-      <c r="C384" s="9"/>
+      <c r="A384" s="6"/>
+      <c r="B384" s="7"/>
+      <c r="C384" s="7"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="8"/>
-      <c r="B385" s="9"/>
-      <c r="C385" s="9"/>
+      <c r="A385" s="6"/>
+      <c r="B385" s="7"/>
+      <c r="C385" s="7"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="8"/>
-      <c r="B386" s="9"/>
-      <c r="C386" s="9"/>
+      <c r="A386" s="6"/>
+      <c r="B386" s="7"/>
+      <c r="C386" s="7"/>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="8"/>
-      <c r="B387" s="9"/>
-      <c r="C387" s="9"/>
+      <c r="A387" s="6"/>
+      <c r="B387" s="7"/>
+      <c r="C387" s="7"/>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="8"/>
-      <c r="B388" s="9"/>
-      <c r="C388" s="9"/>
+      <c r="A388" s="6"/>
+      <c r="B388" s="7"/>
+      <c r="C388" s="7"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="8"/>
-      <c r="B389" s="9"/>
-      <c r="C389" s="9"/>
+      <c r="A389" s="6"/>
+      <c r="B389" s="7"/>
+      <c r="C389" s="7"/>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="8"/>
-      <c r="B390" s="9"/>
-      <c r="C390" s="9"/>
+      <c r="A390" s="6"/>
+      <c r="B390" s="7"/>
+      <c r="C390" s="7"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="8"/>
-      <c r="B391" s="9"/>
-      <c r="C391" s="9"/>
+      <c r="A391" s="6"/>
+      <c r="B391" s="7"/>
+      <c r="C391" s="7"/>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="8"/>
-      <c r="B392" s="9"/>
-      <c r="C392" s="9"/>
+      <c r="A392" s="6"/>
+      <c r="B392" s="7"/>
+      <c r="C392" s="7"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="8"/>
-      <c r="B393" s="9"/>
-      <c r="C393" s="9"/>
+      <c r="A393" s="6"/>
+      <c r="B393" s="7"/>
+      <c r="C393" s="7"/>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="8"/>
-      <c r="B394" s="9"/>
-      <c r="C394" s="9"/>
+      <c r="A394" s="6"/>
+      <c r="B394" s="7"/>
+      <c r="C394" s="7"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="8"/>
-      <c r="B395" s="9"/>
-      <c r="C395" s="9"/>
+      <c r="A395" s="6"/>
+      <c r="B395" s="7"/>
+      <c r="C395" s="7"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="8"/>
-      <c r="B396" s="9"/>
-      <c r="C396" s="9"/>
+      <c r="A396" s="6"/>
+      <c r="B396" s="7"/>
+      <c r="C396" s="7"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="8"/>
-      <c r="B397" s="9"/>
-      <c r="C397" s="9"/>
+      <c r="A397" s="6"/>
+      <c r="B397" s="7"/>
+      <c r="C397" s="7"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="8"/>
-      <c r="B398" s="9"/>
-      <c r="C398" s="9"/>
+      <c r="A398" s="6"/>
+      <c r="B398" s="7"/>
+      <c r="C398" s="7"/>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="8"/>
-      <c r="B399" s="9"/>
-      <c r="C399" s="9"/>
+      <c r="A399" s="6"/>
+      <c r="B399" s="7"/>
+      <c r="C399" s="7"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="8"/>
-      <c r="B400" s="9"/>
-      <c r="C400" s="9"/>
+      <c r="A400" s="6"/>
+      <c r="B400" s="7"/>
+      <c r="C400" s="7"/>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="8"/>
-      <c r="B401" s="9"/>
-      <c r="C401" s="9"/>
+      <c r="A401" s="6"/>
+      <c r="B401" s="7"/>
+      <c r="C401" s="7"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="8"/>
-      <c r="B402" s="9"/>
-      <c r="C402" s="9"/>
+      <c r="A402" s="6"/>
+      <c r="B402" s="7"/>
+      <c r="C402" s="7"/>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="8"/>
-      <c r="B403" s="9"/>
-      <c r="C403" s="9"/>
+      <c r="A403" s="6"/>
+      <c r="B403" s="7"/>
+      <c r="C403" s="7"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="8"/>
-      <c r="B404" s="9"/>
-      <c r="C404" s="9"/>
+      <c r="A404" s="6"/>
+      <c r="B404" s="7"/>
+      <c r="C404" s="7"/>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="8"/>
-      <c r="B405" s="9"/>
-      <c r="C405" s="9"/>
+      <c r="A405" s="6"/>
+      <c r="B405" s="7"/>
+      <c r="C405" s="7"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="8"/>
-      <c r="B406" s="9"/>
-      <c r="C406" s="9"/>
+      <c r="A406" s="6"/>
+      <c r="B406" s="7"/>
+      <c r="C406" s="7"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="8"/>
-      <c r="B407" s="9"/>
-      <c r="C407" s="9"/>
+      <c r="A407" s="6"/>
+      <c r="B407" s="7"/>
+      <c r="C407" s="7"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="8"/>
-      <c r="B408" s="9"/>
-      <c r="C408" s="9"/>
+      <c r="A408" s="6"/>
+      <c r="B408" s="7"/>
+      <c r="C408" s="7"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="8"/>
-      <c r="B409" s="9"/>
-      <c r="C409" s="9"/>
+      <c r="A409" s="6"/>
+      <c r="B409" s="7"/>
+      <c r="C409" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F48" xr:uid="{B1336F6D-DA02-4F46-874A-7EFE1D20D7E0}"/>
   <mergeCells count="1">
     <mergeCell ref="K1:N1"/>
   </mergeCells>
@@ -5709,6 +7447,312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E547C02E-A5DB-4EF3-8BF4-DF5A94646991}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="214.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="122.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="153" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="183.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="153" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="153" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="153" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="153" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="225" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="122.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80312853-DF79-4A6F-8636-B63A425D18B2}">
   <dimension ref="A1"/>
   <sheetViews>
